--- a/численные методы/pr4-5/работа.xlsx
+++ b/численные методы/pr4-5/работа.xlsx
@@ -1,21 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учеба\кит\численные методы\pr4-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F84807B-F5EC-4C97-9023-09574EAF903A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7588743-20B7-46CA-BDD7-8D0A788151EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Матричный способ" sheetId="1" r:id="rId1"/>
     <sheet name="Метод Гаусса" sheetId="2" r:id="rId2"/>
+    <sheet name="Поиск решения" sheetId="3" r:id="rId3"/>
+    <sheet name="Итерационный метод" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Поиск решения'!$B$3,'Поиск решения'!$C$3,'Поиск решения'!$D$3,'Поиск решения'!$E$3</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Поиск решения'!$F$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Поиск решения'!$F$8</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Поиск решения'!$F$9</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Поиск решения'!$F$5</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Поиск решения'!$H$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Поиск решения'!$H$8</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Поиск решения'!$H$9</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">-18</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="185">
   <si>
     <t>Исходная СЛАУ AX = B</t>
   </si>
@@ -65,18 +105,545 @@
   </si>
   <si>
     <t>Шаг 3</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>значение</t>
+  </si>
+  <si>
+    <t>коэф 1го уровня</t>
+  </si>
+  <si>
+    <t>коэф 2го уровня</t>
+  </si>
+  <si>
+    <t>коэф 3го уровня</t>
+  </si>
+  <si>
+    <t>коэф 4го уровня</t>
+  </si>
+  <si>
+    <t>переменные</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>формула b1</t>
+  </si>
+  <si>
+    <t>ai1</t>
+  </si>
+  <si>
+    <t>ai2</t>
+  </si>
+  <si>
+    <t>ai3</t>
+  </si>
+  <si>
+    <t>ai4</t>
+  </si>
+  <si>
+    <t>левая часть</t>
+  </si>
+  <si>
+    <t>формула bi</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Шаг 4</t>
+  </si>
+  <si>
+    <t>ур-е 1</t>
+  </si>
+  <si>
+    <t>ур-е 2</t>
+  </si>
+  <si>
+    <t>ур-е 3</t>
+  </si>
+  <si>
+    <t>ур-е 4</t>
+  </si>
+  <si>
+    <t>преобразованная матрица</t>
+  </si>
+  <si>
+    <t>ур-е 4 + ур-е 2 *2</t>
+  </si>
+  <si>
+    <t>ур-е 3 - ур-е 1</t>
+  </si>
+  <si>
+    <t>Матрица С</t>
+  </si>
+  <si>
+    <t>Столбец D</t>
+  </si>
+  <si>
+    <t>итерации (метод простой итерации)</t>
+  </si>
+  <si>
+    <t>i0</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>i4</t>
+  </si>
+  <si>
+    <t>i5</t>
+  </si>
+  <si>
+    <t>i6</t>
+  </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <t>i8</t>
+  </si>
+  <si>
+    <t>i9</t>
+  </si>
+  <si>
+    <t>i10</t>
+  </si>
+  <si>
+    <t>i11</t>
+  </si>
+  <si>
+    <t>i12</t>
+  </si>
+  <si>
+    <t>i13</t>
+  </si>
+  <si>
+    <t>i14</t>
+  </si>
+  <si>
+    <t>i15</t>
+  </si>
+  <si>
+    <t>i16</t>
+  </si>
+  <si>
+    <t>i17</t>
+  </si>
+  <si>
+    <t>i18</t>
+  </si>
+  <si>
+    <t>i19</t>
+  </si>
+  <si>
+    <t>i20</t>
+  </si>
+  <si>
+    <t>i21</t>
+  </si>
+  <si>
+    <t>i22</t>
+  </si>
+  <si>
+    <t>i23</t>
+  </si>
+  <si>
+    <t>i24</t>
+  </si>
+  <si>
+    <t>i25</t>
+  </si>
+  <si>
+    <t>i26</t>
+  </si>
+  <si>
+    <t>i27</t>
+  </si>
+  <si>
+    <t>i28</t>
+  </si>
+  <si>
+    <t>i29</t>
+  </si>
+  <si>
+    <t>i30</t>
+  </si>
+  <si>
+    <t>i31</t>
+  </si>
+  <si>
+    <t>i32</t>
+  </si>
+  <si>
+    <t>i33</t>
+  </si>
+  <si>
+    <t>i34</t>
+  </si>
+  <si>
+    <t>i35</t>
+  </si>
+  <si>
+    <t>i36</t>
+  </si>
+  <si>
+    <t>i37</t>
+  </si>
+  <si>
+    <t>i38</t>
+  </si>
+  <si>
+    <t>i39</t>
+  </si>
+  <si>
+    <t>i40</t>
+  </si>
+  <si>
+    <t>i41</t>
+  </si>
+  <si>
+    <t>i42</t>
+  </si>
+  <si>
+    <t>i43</t>
+  </si>
+  <si>
+    <t>i44</t>
+  </si>
+  <si>
+    <t>i45</t>
+  </si>
+  <si>
+    <t>i46</t>
+  </si>
+  <si>
+    <t>i47</t>
+  </si>
+  <si>
+    <t>i48</t>
+  </si>
+  <si>
+    <t>i49</t>
+  </si>
+  <si>
+    <t>i50</t>
+  </si>
+  <si>
+    <t>i51</t>
+  </si>
+  <si>
+    <t>i52</t>
+  </si>
+  <si>
+    <t>i53</t>
+  </si>
+  <si>
+    <t>i54</t>
+  </si>
+  <si>
+    <t>i55</t>
+  </si>
+  <si>
+    <t>i56</t>
+  </si>
+  <si>
+    <t>i57</t>
+  </si>
+  <si>
+    <t>i58</t>
+  </si>
+  <si>
+    <t>i59</t>
+  </si>
+  <si>
+    <t>i60</t>
+  </si>
+  <si>
+    <t>i61</t>
+  </si>
+  <si>
+    <t>i62</t>
+  </si>
+  <si>
+    <t>i63</t>
+  </si>
+  <si>
+    <t>i64</t>
+  </si>
+  <si>
+    <t>i65</t>
+  </si>
+  <si>
+    <t>i66</t>
+  </si>
+  <si>
+    <t>i67</t>
+  </si>
+  <si>
+    <t>i68</t>
+  </si>
+  <si>
+    <t>i69</t>
+  </si>
+  <si>
+    <t>i70</t>
+  </si>
+  <si>
+    <t>i71</t>
+  </si>
+  <si>
+    <t>i72</t>
+  </si>
+  <si>
+    <t>i73</t>
+  </si>
+  <si>
+    <t>i74</t>
+  </si>
+  <si>
+    <t>i75</t>
+  </si>
+  <si>
+    <t>i76</t>
+  </si>
+  <si>
+    <t>i77</t>
+  </si>
+  <si>
+    <t>i78</t>
+  </si>
+  <si>
+    <t>i79</t>
+  </si>
+  <si>
+    <t>i80</t>
+  </si>
+  <si>
+    <t>i81</t>
+  </si>
+  <si>
+    <t>i82</t>
+  </si>
+  <si>
+    <t>i83</t>
+  </si>
+  <si>
+    <t>i84</t>
+  </si>
+  <si>
+    <t>i85</t>
+  </si>
+  <si>
+    <t>i86</t>
+  </si>
+  <si>
+    <t>i87</t>
+  </si>
+  <si>
+    <t>i88</t>
+  </si>
+  <si>
+    <t>i89</t>
+  </si>
+  <si>
+    <t>i90</t>
+  </si>
+  <si>
+    <t>i91</t>
+  </si>
+  <si>
+    <t>i92</t>
+  </si>
+  <si>
+    <t>i93</t>
+  </si>
+  <si>
+    <t>i94</t>
+  </si>
+  <si>
+    <t>i95</t>
+  </si>
+  <si>
+    <t>i96</t>
+  </si>
+  <si>
+    <t>i97</t>
+  </si>
+  <si>
+    <t>i98</t>
+  </si>
+  <si>
+    <t>i99</t>
+  </si>
+  <si>
+    <t>i100</t>
+  </si>
+  <si>
+    <t>i101</t>
+  </si>
+  <si>
+    <t>i102</t>
+  </si>
+  <si>
+    <t>i103</t>
+  </si>
+  <si>
+    <t>i104</t>
+  </si>
+  <si>
+    <t>i105</t>
+  </si>
+  <si>
+    <t>i106</t>
+  </si>
+  <si>
+    <t>i107</t>
+  </si>
+  <si>
+    <t>i108</t>
+  </si>
+  <si>
+    <t>i109</t>
+  </si>
+  <si>
+    <t>i110</t>
+  </si>
+  <si>
+    <t>i111</t>
+  </si>
+  <si>
+    <t>i112</t>
+  </si>
+  <si>
+    <t>i113</t>
+  </si>
+  <si>
+    <t>i114</t>
+  </si>
+  <si>
+    <t>i115</t>
+  </si>
+  <si>
+    <t>i116</t>
+  </si>
+  <si>
+    <t>i117</t>
+  </si>
+  <si>
+    <t>i118</t>
+  </si>
+  <si>
+    <t>i119</t>
+  </si>
+  <si>
+    <t>i120</t>
+  </si>
+  <si>
+    <t>i121</t>
+  </si>
+  <si>
+    <t>i122</t>
+  </si>
+  <si>
+    <t>i123</t>
+  </si>
+  <si>
+    <t>i124</t>
+  </si>
+  <si>
+    <t>i125</t>
+  </si>
+  <si>
+    <t>i126</t>
+  </si>
+  <si>
+    <t>i127</t>
+  </si>
+  <si>
+    <t>i128</t>
+  </si>
+  <si>
+    <t>i129</t>
+  </si>
+  <si>
+    <t>i130</t>
+  </si>
+  <si>
+    <t>i131</t>
+  </si>
+  <si>
+    <t>i132</t>
+  </si>
+  <si>
+    <t>i133</t>
+  </si>
+  <si>
+    <t>i134</t>
+  </si>
+  <si>
+    <t>i135</t>
+  </si>
+  <si>
+    <t>i136</t>
+  </si>
+  <si>
+    <t>i137</t>
+  </si>
+  <si>
+    <t>i138</t>
+  </si>
+  <si>
+    <t>i139</t>
+  </si>
+  <si>
+    <t>i140</t>
+  </si>
+  <si>
+    <t>итерации (метод Зейделя)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,16 +655,47 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -222,17 +820,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -251,9 +900,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% — акцент1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% — акцент1" xfId="3" builtinId="31"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,184 +1219,182 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="H4" t="s">
-        <v>2</v>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>-18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="5">
+        <v>-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F5" s="7">
         <v>-6</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>-18</v>
+      <c r="G5" s="12">
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>-4</v>
-      </c>
-      <c r="F6" s="9">
-        <v>-6</v>
-      </c>
-      <c r="H6" s="14">
-        <v>-2</v>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6</v>
+      </c>
+      <c r="G6" s="12">
+        <v>-14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="7">
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="8">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9">
-        <v>6</v>
-      </c>
-      <c r="H7" s="14">
-        <v>-14</v>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13">
+        <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="10">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="12">
-        <v>8</v>
-      </c>
-      <c r="H8" s="15">
-        <v>-6</v>
-      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="A11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27">
+        <f t="array" ref="B11:B14" xml:space="preserve"> MMULT(E11:H14,G4:G7)</f>
+        <v>-4.9999999999999982</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="array" ref="E11:H14">MINVERSE(C4:F7)</f>
+        <v>-0.15384615384615374</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.21153846153846143</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.67307692307692291</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-0.34615384615384609</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="13">
-        <f t="array" ref="B12:B15" xml:space="preserve"> MMULT(E12:H15,H5:H8)</f>
-        <v>-4.9999999999999982</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="array" ref="E12:H15">MINVERSE(C5:F8)</f>
-        <v>-0.15384615384615374</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.21153846153846143</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.67307692307692291</v>
-      </c>
-      <c r="H12" s="6">
-        <v>-0.34615384615384609</v>
+      <c r="A12" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.8461538461538547E-2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-0.42307692307692291</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.34615384615384615</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0.99999999999999956</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.15384615384615374</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3.8461538461538547E-2</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-0.42307692307692291</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.34615384615384615</v>
+      <c r="A13" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="28">
+        <v>-2.9999999999999991</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-0.26923076923076916</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.3076923076923076</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.6153846153846152</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-0.2307692307692307</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="14">
-        <v>-2.9999999999999991</v>
-      </c>
-      <c r="E14" s="7">
-        <v>-0.26923076923076916</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.3076923076923076</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.6153846153846152</v>
-      </c>
-      <c r="H14" s="9">
-        <v>-0.2307692307692307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B14" s="29">
         <v>4</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E14" s="8">
         <v>0.23076923076923073</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F14" s="9">
         <v>-0.44230769230769224</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G14" s="9">
         <v>-0.63461538461538447</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H14" s="10">
         <v>0.26923076923076916</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="E11:H11"/>
+  <mergeCells count="1">
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -729,276 +1403,6725 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F1E0BF-FA5C-4E56-8D20-F6218AAD00E7}">
-  <dimension ref="C2:K21"/>
+  <dimension ref="B3:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="4">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="3">
         <v>-6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G4" s="11">
         <v>-18</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="7">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
         <v>-2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E5" s="6">
         <v>-4</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="7">
         <v>-6</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G5" s="12">
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="7">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D6" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="7">
         <v>6</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G6" s="12">
         <v>-14</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="10">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="9">
         <v>6</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="9">
         <v>8</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="10">
         <v>8</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G7" s="13">
         <v>-6</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="8">
-        <f xml:space="preserve"> C$3/$C$3</f>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f>C$4/$C$4</f>
         <v>1</v>
       </c>
-      <c r="D8" s="8">
-        <f xml:space="preserve"> D$3/$C$3</f>
+      <c r="D9" s="3">
+        <f>D$4/$C$4</f>
         <v>0.5</v>
       </c>
-      <c r="E8" s="8">
-        <f xml:space="preserve"> E$3/$C$3</f>
+      <c r="E9" s="3">
+        <f>E$4/$C$4</f>
         <v>-0.75</v>
       </c>
-      <c r="F8" s="8">
-        <f xml:space="preserve"> F$3/$C$3</f>
+      <c r="F9" s="3">
+        <f>F$4/$C$4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="8">
-        <f xml:space="preserve"> G$3/$C$3</f>
+      <c r="G9" s="11">
+        <f>G$4/$C$4</f>
         <v>-2.25</v>
       </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="8">
-        <f xml:space="preserve"> C4 - PRODUCT(C$8,$C4)</f>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <f>C5-PRODUCT(C$9,$C5)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="8">
-        <f xml:space="preserve"> D4 - PRODUCT(D$8,$C4)</f>
+      <c r="D10" s="6">
+        <f>D5-PRODUCT(D$9,$C5)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="8">
-        <f xml:space="preserve"> E4 - PRODUCT(E$8,$C4)</f>
+      <c r="E10" s="6">
+        <f>E5-PRODUCT(E$9,$C5)</f>
         <v>-5.5</v>
       </c>
-      <c r="F9" s="8">
-        <f xml:space="preserve"> F4 - PRODUCT(F$8,$C4)</f>
+      <c r="F10" s="6">
+        <f>F5-PRODUCT(F$9,$C5)</f>
         <v>-6</v>
       </c>
-      <c r="G9" s="8">
-        <f xml:space="preserve"> G4 - PRODUCT(G$8,$C4)</f>
+      <c r="G10" s="12">
+        <f>G5-PRODUCT(G$9,$C5)</f>
         <v>-6.5</v>
       </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="8">
-        <f xml:space="preserve"> C5 - PRODUCT(C$8,$C5)</f>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <f>C6-PRODUCT(C$9,$C6)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" ref="D10:F10" si="0" xml:space="preserve"> D5 - PRODUCT(D$8,$C5)</f>
+      <c r="D11" s="6">
+        <f>D6-PRODUCT(D$9,$C6)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
+      <c r="E11" s="6">
+        <f>E6-PRODUCT(E$9,$C6)</f>
         <v>8.5</v>
       </c>
-      <c r="F10" s="8">
-        <f xml:space="preserve"> F5 - PRODUCT(F$8,$C5)</f>
+      <c r="F11" s="6">
+        <f>F6-PRODUCT(F$9,$C6)</f>
         <v>6</v>
       </c>
-      <c r="G10" s="8">
-        <f xml:space="preserve"> G5 - PRODUCT(G$8,$C5)</f>
+      <c r="G11" s="12">
+        <f>G6-PRODUCT(G$9,$C6)</f>
         <v>-0.5</v>
       </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="8">
-        <f xml:space="preserve"> C6 - PRODUCT(C$8,$C6)</f>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <f>C7-PRODUCT(C$9,$C7)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" ref="D11:F11" si="1" xml:space="preserve"> D6 - PRODUCT(D$8,$C6)</f>
+      <c r="D12" s="9">
+        <f>D7-PRODUCT(D$9,$C7)</f>
         <v>4</v>
       </c>
-      <c r="E11" s="8">
-        <f t="shared" si="1"/>
+      <c r="E12" s="9">
+        <f>E7-PRODUCT(E$9,$C7)</f>
         <v>11</v>
       </c>
-      <c r="F11" s="8">
-        <f xml:space="preserve"> F6 - PRODUCT(F$8,$C6)</f>
+      <c r="F12" s="9">
+        <f>F7-PRODUCT(F$9,$C7)</f>
         <v>8</v>
       </c>
-      <c r="G11" s="8">
-        <f xml:space="preserve"> G6 - PRODUCT(G$8,$C6)</f>
+      <c r="G12" s="13">
+        <f>G7-PRODUCT(G$9,$C7)</f>
         <v>3</v>
       </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <f xml:space="preserve"> D$9/$D$9</f>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="2">
+        <f>D$10/$D$10</f>
         <v>1</v>
       </c>
-      <c r="E13">
-        <f xml:space="preserve"> E$9/$D$9</f>
+      <c r="E14" s="3">
+        <f>E$10/$D$10</f>
         <v>-5.5</v>
       </c>
-      <c r="F13">
-        <f xml:space="preserve"> F$9/$D$9</f>
+      <c r="F14" s="3">
+        <f>F$10/$D$10</f>
         <v>-6</v>
       </c>
-      <c r="G13">
-        <f xml:space="preserve"> G$9/$D$9</f>
+      <c r="G14" s="11">
+        <f>G$10/$D$10</f>
         <v>-6.5</v>
       </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <f xml:space="preserve"> D10 - PRODUCT(D$13,$D10)</f>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="5">
+        <f>D11-PRODUCT(D$14,$D11)</f>
         <v>0</v>
       </c>
-      <c r="E14">
-        <f xml:space="preserve"> E10 - PRODUCT(E$13,$D10)</f>
+      <c r="E15" s="6">
+        <f>E11-PRODUCT(E$14,$D11)</f>
         <v>14</v>
       </c>
-      <c r="F14">
-        <f xml:space="preserve"> F10 - PRODUCT(F$13,$D10)</f>
+      <c r="F15" s="6">
+        <f>F11-PRODUCT(F$14,$D11)</f>
         <v>12</v>
       </c>
-      <c r="G14">
-        <f xml:space="preserve"> G10 - PRODUCT(G$13,$D10)</f>
+      <c r="G15" s="12">
+        <f>G11-PRODUCT(G$14,$D11)</f>
         <v>6</v>
       </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <f xml:space="preserve"> D11 - PRODUCT(D$13,$D11)</f>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="8">
+        <f>D12-PRODUCT(D$14,$D12)</f>
         <v>0</v>
       </c>
-      <c r="E15">
-        <f xml:space="preserve"> E11 - PRODUCT(E$13,$D11)</f>
+      <c r="E16" s="9">
+        <f>E12-PRODUCT(E$14,$D12)</f>
         <v>33</v>
       </c>
-      <c r="F15">
-        <f xml:space="preserve"> F11 - PRODUCT(F$13,$D11)</f>
+      <c r="F16" s="9">
+        <f>F12-PRODUCT(F$14,$D12)</f>
         <v>32</v>
       </c>
-      <c r="G15">
-        <f xml:space="preserve"> G11 - PRODUCT(G$13,$D11)</f>
+      <c r="G16" s="13">
+        <f>G12-PRODUCT(G$14,$D12)</f>
         <v>29</v>
       </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <f xml:space="preserve"> E$14 / $E$14</f>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2">
+        <f>E$15/$E$15</f>
         <v>1</v>
       </c>
-      <c r="F17">
-        <f xml:space="preserve"> F$14 / $E$14</f>
+      <c r="F18" s="3">
+        <f>F$15/$E$15</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G17">
-        <f xml:space="preserve"> G$14 / $E$14</f>
+      <c r="G18" s="11">
+        <f>G$15/$E$15</f>
         <v>0.42857142857142855</v>
       </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <f xml:space="preserve">  E17 - PRODUCT(E$17,$E13)</f>
-        <v>6.5</v>
-      </c>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <f xml:space="preserve"> E16 - PRODUCT(E$18,$E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <f xml:space="preserve"> F16 - PRODUCT(F$18,$E16)</f>
+        <v>3.7142857142857153</v>
+      </c>
+      <c r="G19" s="13">
+        <f xml:space="preserve"> G16 - PRODUCT(G$18,$E16)</f>
+        <v>14.857142857142858</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="16">
+        <f>F$19/$F$19</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <f>G$19/$F$19</f>
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
       <c r="K21" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="23">
+        <f>G9-SUMPRODUCT($D$9:$F$9,$C$24:$E$24)</f>
+        <v>-4.9999999999999973</v>
+      </c>
+      <c r="C24" s="23">
+        <f>G14-SUMPRODUCT($E$14:$F$14,$D$24:$E$24)</f>
+        <v>0.99999999999999645</v>
+      </c>
+      <c r="D24" s="23">
+        <f>$G$18-SUMPRODUCT($F$18,$E$24)</f>
+        <v>-2.9999999999999991</v>
+      </c>
+      <c r="E24" s="23">
+        <f>G21</f>
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1399CD-E5F4-4877-8361-BA3A8B27FB34}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="20">
+        <v>-5.0000006730769178</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1.0000004230769195</v>
+      </c>
+      <c r="D3" s="20">
+        <v>-3.0000006153846104</v>
+      </c>
+      <c r="E3" s="20">
+        <v>4.0000006346153798</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-6</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>-4</v>
+      </c>
+      <c r="M4" s="7">
+        <v>-6</v>
+      </c>
+      <c r="N4" s="12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17">
+        <v>4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>-6</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>SUMPRODUCT($B$3:$E$3,B5:E5)</f>
+        <v>-18.000000000000004</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6</v>
+      </c>
+      <c r="K5" s="6">
+        <v>4</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7">
+        <v>6</v>
+      </c>
+      <c r="N5" s="12">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9">
+        <v>6</v>
+      </c>
+      <c r="L6" s="9">
+        <v>8</v>
+      </c>
+      <c r="M6" s="10">
+        <v>8</v>
+      </c>
+      <c r="N6" s="13">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-6</v>
+      </c>
+      <c r="F7">
+        <f>SUMPRODUCT($B$3:$E$3,B7:E7)</f>
+        <v>-2.0000000000000036</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f>SUMPRODUCT($B$3:$E$3,B8:E8)</f>
+        <v>-14.00000099999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="19">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F6:F9" si="0">SUMPRODUCT($B$3:$E$3,B9:E9)</f>
+        <v>-6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="13">
+        <v>-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACA9C18-4D28-4C6D-B603-F90A0AFA7CAF}">
+  <dimension ref="A2:HN31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="DZ1" workbookViewId="0">
+      <selection activeCell="EM10" sqref="EM10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-6</v>
+      </c>
+      <c r="F4" s="12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="30">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B6+B4*2</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="31">
+        <f t="shared" ref="C9:F9" si="0">C6+C4*2</f>
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5">
+        <f>B5-B3</f>
+        <v>-2</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" ref="C10:F10" si="1">C5-C3</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8">
+        <v>-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>-4</v>
+      </c>
+      <c r="E11" s="32">
+        <v>-6</v>
+      </c>
+      <c r="F11" s="13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="30">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <f>-C8/$B$8</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:F13" si="2">-D8/$B$8</f>
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="3">
+        <f>-E8/$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <f>-F8/$B$8</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <f>-B9/$C$9</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="C14:F14" si="3">-D9/$C$9</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F14" s="12">
+        <f>-F9/$C$9</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <f>-B10/$D$10</f>
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="6">
+        <f>-C10/$D$10</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <f>-E10/$D$10</f>
+        <v>-0.6</v>
+      </c>
+      <c r="F15" s="12">
+        <f>-F10/$D$10</f>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <f>-B11/$E$11</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" ref="C16:F16" si="4">-C11/$E$11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <f>-F11/$E$11</f>
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BV18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BX18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="BZ18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="CA18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CB18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="CF18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="CH18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="CL18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="CN18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="CP18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="CQ18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="CS18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="CT18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="CU18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="CV18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CW18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="CX18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="CZ18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="DA18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="DB18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="DC18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="DD18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="DE18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="DF18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="DG18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="DH18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="DI18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="DJ18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DK18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DL18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="DM18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="DN18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="DO18" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="DP18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="DQ18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DR18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="DT18" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="DU18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DV18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DW18" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="DX18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY18" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="DZ18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="EA18" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="EB18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="EC18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="ED18" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="EE18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="EF18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="EG18" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="EH18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="EJ18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="EK18" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="EM18" s="6"/>
+    </row>
+    <row r="19" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="33">
+        <f>MMULT($B13:$E13,B$19:B$22)+$F13</f>
+        <v>2.25</v>
+      </c>
+      <c r="D19" s="33">
+        <f>MMULT($B13:$E13,C$19:C$22)+$F13</f>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" ref="D19:Z22" si="5">MMULT($B13:$E13,D$19:D$22)+$F13</f>
+        <v>1.7152777777777777</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="5"/>
+        <v>1.923888888888889</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" si="5"/>
+        <v>2.0571990740740738</v>
+      </c>
+      <c r="H19" s="33">
+        <f t="shared" si="5"/>
+        <v>2.2778688271604937</v>
+      </c>
+      <c r="I19" s="33">
+        <f t="shared" si="5"/>
+        <v>2.4322650462962958</v>
+      </c>
+      <c r="J19" s="33">
+        <f t="shared" si="5"/>
+        <v>2.5977137860082302</v>
+      </c>
+      <c r="K19" s="33">
+        <f t="shared" si="5"/>
+        <v>2.7461759280692726</v>
+      </c>
+      <c r="L19" s="33">
+        <f t="shared" si="5"/>
+        <v>2.8872948478223588</v>
+      </c>
+      <c r="M19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.019011584397862</v>
+      </c>
+      <c r="N19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.1427453824540845</v>
+      </c>
+      <c r="O19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.2586356229310742</v>
+      </c>
+      <c r="P19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.3673538672901819</v>
+      </c>
+      <c r="Q19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.469255846226118</v>
+      </c>
+      <c r="R19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.5648103899951176</v>
+      </c>
+      <c r="S19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.6543946973470716</v>
+      </c>
+      <c r="T19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.7383893573359197</v>
+      </c>
+      <c r="U19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.8171400563163309</v>
+      </c>
+      <c r="V19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.8909754459529413</v>
+      </c>
+      <c r="W19" s="33">
+        <f t="shared" si="5"/>
+        <v>3.960201794160453</v>
+      </c>
+      <c r="X19" s="33">
+        <f t="shared" si="5"/>
+        <v>4.0251070369716446</v>
+      </c>
+      <c r="Y19" s="33">
+        <f t="shared" si="5"/>
+        <v>4.0859608001789098</v>
+      </c>
+      <c r="Z19" s="33">
+        <f t="shared" si="5"/>
+        <v>4.143016025296431</v>
+      </c>
+      <c r="AA19" s="33">
+        <f t="shared" ref="AA19:AT19" si="6">MMULT($B13:$E13,Z$19:Z$22)+$F13</f>
+        <v>4.1965098017147948</v>
+      </c>
+      <c r="AB19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.246664446714048</v>
+      </c>
+      <c r="AC19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.2936883886673787</v>
+      </c>
+      <c r="AD19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.3377770505980973</v>
+      </c>
+      <c r="AE19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.3791136549297169</v>
+      </c>
+      <c r="AF19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.4178699880571717</v>
+      </c>
+      <c r="AG19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.4542071129193976</v>
+      </c>
+      <c r="AH19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.4882760389118967</v>
+      </c>
+      <c r="AI19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.5202183492063615</v>
+      </c>
+      <c r="AJ19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.5501667892441491</v>
+      </c>
+      <c r="AK19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.5782458183535786</v>
+      </c>
+      <c r="AL19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.604572126995361</v>
+      </c>
+      <c r="AM19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.6292551216951683</v>
+      </c>
+      <c r="AN19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.6523973797172893</v>
+      </c>
+      <c r="AO19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.6740950753524011</v>
+      </c>
+      <c r="AP19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.6944383795980418</v>
+      </c>
+      <c r="AQ19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.7135118348897862</v>
+      </c>
+      <c r="AR19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.7313947064417068</v>
+      </c>
+      <c r="AS19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.7481613116556449</v>
+      </c>
+      <c r="AT19" s="33">
+        <f t="shared" si="6"/>
+        <v>4.7638813289685178</v>
+      </c>
+      <c r="AU19" s="33">
+        <f t="shared" ref="AU19:DD19" si="7">MMULT($B13:$E13,AT$19:AT$22)+$F13</f>
+        <v>4.7786200874210412</v>
+      </c>
+      <c r="AV19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.7924388381512895</v>
+      </c>
+      <c r="AW19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8053950089413808</v>
+      </c>
+      <c r="AX19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8175424428750819</v>
+      </c>
+      <c r="AY19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8289316220981977</v>
+      </c>
+      <c r="AZ19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8396098776116023</v>
+      </c>
+      <c r="BA19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8496215859687855</v>
+      </c>
+      <c r="BB19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8590083536953586</v>
+      </c>
+      <c r="BC19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8678091901968923</v>
+      </c>
+      <c r="BD19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8760606698737012</v>
+      </c>
+      <c r="BE19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8837970841162477</v>
+      </c>
+      <c r="BF19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8910505838128513</v>
+      </c>
+      <c r="BG19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.8978513129619312</v>
+      </c>
+      <c r="BH19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9042275339440309</v>
+      </c>
+      <c r="BI19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9102057449742507</v>
+      </c>
+      <c r="BJ19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9158107902231816</v>
+      </c>
+      <c r="BK19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9210659630639766</v>
+      </c>
+      <c r="BL19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9259931028746493</v>
+      </c>
+      <c r="BM19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9306126857978736</v>
+      </c>
+      <c r="BN19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9349439098354599</v>
+      </c>
+      <c r="BO19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9390047746311661</v>
+      </c>
+      <c r="BP19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9428121562733764</v>
+      </c>
+      <c r="BQ19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9463818774285286</v>
+      </c>
+      <c r="BR19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9497287730967381</v>
+      </c>
+      <c r="BS19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.952866752262902</v>
+      </c>
+      <c r="BT19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9558088556994715</v>
+      </c>
+      <c r="BU19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9585673101611238</v>
+      </c>
+      <c r="BV19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9611535791965444</v>
+      </c>
+      <c r="BW19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9635784107884984</v>
+      </c>
+      <c r="BX19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9658518820201465</v>
+      </c>
+      <c r="BY19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9679834409532653</v>
+      </c>
+      <c r="BZ19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9699819458923686</v>
+      </c>
+      <c r="CA19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9718557021979342</v>
+      </c>
+      <c r="CB19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9736124968017172</v>
+      </c>
+      <c r="CC19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9752596305675709</v>
+      </c>
+      <c r="CD19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9768039486322877</v>
+      </c>
+      <c r="CE19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9782518688525208</v>
+      </c>
+      <c r="CF19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9796094084760334</v>
+      </c>
+      <c r="CG19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9808822091480973</v>
+      </c>
+      <c r="CH19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9820755603569671</v>
+      </c>
+      <c r="CI19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9831944214158632</v>
+      </c>
+      <c r="CJ19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9842434420728257</v>
+      </c>
+      <c r="CK19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9852269818340709</v>
+      </c>
+      <c r="CL19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9861491280811725</v>
+      </c>
+      <c r="CM19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9870137130573484</v>
+      </c>
+      <c r="CN19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9878243297934439</v>
+      </c>
+      <c r="CO19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9885843470398061</v>
+      </c>
+      <c r="CP19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9892969232660871</v>
+      </c>
+      <c r="CQ19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9899650197871743</v>
+      </c>
+      <c r="CR19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.990591413069783</v>
+      </c>
+      <c r="CS19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9911787062708601</v>
+      </c>
+      <c r="CT19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9917293400557465</v>
+      </c>
+      <c r="CU19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9922456027410682</v>
+      </c>
+      <c r="CV19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9927296398044865</v>
+      </c>
+      <c r="CW19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9931834628008485</v>
+      </c>
+      <c r="CX19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9936089577217793</v>
+      </c>
+      <c r="CY19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9940078928334639</v>
+      </c>
+      <c r="CZ19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9943819260251772</v>
+      </c>
+      <c r="DA19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9947326116991295</v>
+      </c>
+      <c r="DB19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.99506140723022</v>
+      </c>
+      <c r="DC19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9953696790225823</v>
+      </c>
+      <c r="DD19" s="33">
+        <f t="shared" si="7"/>
+        <v>4.9956587081880688</v>
+      </c>
+      <c r="DE19" s="33">
+        <f t="shared" ref="DE19:EM19" si="8">MMULT($B13:$E13,DD$19:DD$22)+$F13</f>
+        <v>4.9959296958702719</v>
+      </c>
+      <c r="DF19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9961837682362331</v>
+      </c>
+      <c r="DG19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.996421981156538</v>
+      </c>
+      <c r="DH19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9966453245933025</v>
+      </c>
+      <c r="DI19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9968547267142363</v>
+      </c>
+      <c r="DJ19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9970510577499114</v>
+      </c>
+      <c r="DK19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9972351336102605</v>
+      </c>
+      <c r="DL19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9974077192753157</v>
+      </c>
+      <c r="DM19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9975695319743085</v>
+      </c>
+      <c r="DN19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9977212441663212</v>
+      </c>
+      <c r="DO19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9978634863348805</v>
+      </c>
+      <c r="DP19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.997996849608116</v>
+      </c>
+      <c r="DQ19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9981218882153602</v>
+      </c>
+      <c r="DR19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.998239121790407</v>
+      </c>
+      <c r="DS19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9983490375310069</v>
+      </c>
+      <c r="DT19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9984520922235394</v>
+      </c>
+      <c r="DU19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9985487141413429</v>
+      </c>
+      <c r="DV19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9986393048245059</v>
+      </c>
+      <c r="DW19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9987242407485963</v>
+      </c>
+      <c r="DX19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9988038748892087</v>
+      </c>
+      <c r="DY19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.998878538188853</v>
+      </c>
+      <c r="DZ19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9989485409322878</v>
+      </c>
+      <c r="EA19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9990141740359899</v>
+      </c>
+      <c r="EB19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9990757102571459</v>
+      </c>
+      <c r="EC19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9991334053271732</v>
+      </c>
+      <c r="ED19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9991874990144849</v>
+      </c>
+      <c r="EE19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9992382161209115</v>
+      </c>
+      <c r="EF19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9992857674159357</v>
+      </c>
+      <c r="EG19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9993303505126025</v>
+      </c>
+      <c r="EH19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9993721506887567</v>
+      </c>
+      <c r="EI19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9994113416570212</v>
+      </c>
+      <c r="EJ19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9994480862867041</v>
+      </c>
+      <c r="EK19" s="33">
+        <f t="shared" si="8"/>
+        <v>4.9994825372806524</v>
+      </c>
+      <c r="EL19" s="35">
+        <f t="shared" si="8"/>
+        <v>4.9995148378098548</v>
+      </c>
+      <c r="EM19" s="33"/>
+      <c r="EN19" s="33"/>
+      <c r="EO19" s="33"/>
+      <c r="EP19" s="33"/>
+      <c r="EQ19" s="33"/>
+      <c r="ER19" s="33"/>
+      <c r="ES19" s="33"/>
+      <c r="ET19" s="33"/>
+      <c r="EU19" s="33"/>
+      <c r="EV19" s="33"/>
+      <c r="EW19" s="33"/>
+      <c r="EX19" s="33"/>
+      <c r="EY19" s="33"/>
+      <c r="EZ19" s="33"/>
+      <c r="FA19" s="33"/>
+      <c r="FB19" s="33"/>
+      <c r="FC19" s="33"/>
+      <c r="FD19" s="33"/>
+      <c r="FE19" s="33"/>
+      <c r="FF19" s="33"/>
+      <c r="FG19" s="33"/>
+      <c r="FH19" s="33"/>
+      <c r="FI19" s="33"/>
+      <c r="FJ19" s="33"/>
+      <c r="FK19" s="33"/>
+      <c r="FL19" s="33"/>
+      <c r="FM19" s="33"/>
+      <c r="FN19" s="33"/>
+      <c r="FO19" s="33"/>
+      <c r="FP19" s="33"/>
+      <c r="FQ19" s="33"/>
+      <c r="FR19" s="33"/>
+      <c r="FS19" s="33"/>
+      <c r="FT19" s="33"/>
+      <c r="FU19" s="33"/>
+      <c r="FV19" s="33"/>
+      <c r="FW19" s="33"/>
+      <c r="FX19" s="33"/>
+      <c r="FY19" s="33"/>
+      <c r="FZ19" s="33"/>
+      <c r="GA19" s="33"/>
+      <c r="GB19" s="33"/>
+      <c r="GC19" s="33"/>
+      <c r="GD19" s="33"/>
+      <c r="GE19" s="33"/>
+      <c r="GF19" s="33"/>
+      <c r="GG19" s="33"/>
+      <c r="GH19" s="33"/>
+      <c r="GI19" s="33"/>
+      <c r="GJ19" s="33"/>
+      <c r="GK19" s="33"/>
+      <c r="GL19" s="33"/>
+      <c r="GM19" s="33"/>
+      <c r="GN19" s="33"/>
+      <c r="GO19" s="33"/>
+      <c r="GP19" s="33"/>
+      <c r="GQ19" s="33"/>
+      <c r="GR19" s="33"/>
+      <c r="GS19" s="33"/>
+      <c r="GT19" s="33"/>
+      <c r="GU19" s="33"/>
+      <c r="GV19" s="33"/>
+      <c r="GW19" s="33"/>
+      <c r="GX19" s="33"/>
+      <c r="GY19" s="33"/>
+      <c r="GZ19" s="33"/>
+      <c r="HA19" s="33"/>
+      <c r="HB19" s="33"/>
+      <c r="HC19" s="33"/>
+      <c r="HD19" s="33"/>
+      <c r="HE19" s="33"/>
+      <c r="HF19" s="33"/>
+      <c r="HG19" s="33"/>
+      <c r="HH19" s="33"/>
+      <c r="HI19" s="33"/>
+      <c r="HJ19" s="33"/>
+      <c r="HK19" s="33"/>
+      <c r="HL19" s="33"/>
+      <c r="HM19" s="33"/>
+      <c r="HN19" s="33"/>
+    </row>
+    <row r="20" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="33">
+        <f t="shared" ref="C20:C22" si="9">MMULT($B14:$E14,B$19:B$22)+$F14</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" ref="C20:R22" si="10">MMULT($B14:$E14,C$19:C$22)+$F14</f>
+        <v>1.4444444444444446</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="10"/>
+        <v>1.1222222222222222</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="10"/>
+        <v>1.0851851851851853</v>
+      </c>
+      <c r="G20" s="33">
+        <f t="shared" si="10"/>
+        <v>0.92401234567901247</v>
+      </c>
+      <c r="H20" s="33">
+        <f t="shared" si="10"/>
+        <v>0.80962962962962992</v>
+      </c>
+      <c r="I20" s="33">
+        <f t="shared" si="10"/>
+        <v>0.6969927983539097</v>
+      </c>
+      <c r="J20" s="33">
+        <f t="shared" si="10"/>
+        <v>0.59035219478738021</v>
+      </c>
+      <c r="K20" s="33">
+        <f t="shared" si="10"/>
+        <v>0.49137210219478766</v>
+      </c>
+      <c r="L20" s="33">
+        <f t="shared" si="10"/>
+        <v>0.39822536579789714</v>
+      </c>
+      <c r="M20" s="33">
+        <f t="shared" si="10"/>
+        <v>0.3109351869951229</v>
+      </c>
+      <c r="N20" s="33">
+        <f t="shared" si="10"/>
+        <v>0.22912009764136587</v>
+      </c>
+      <c r="O20" s="33">
+        <f t="shared" si="10"/>
+        <v>0.15238973623653718</v>
+      </c>
+      <c r="P20" s="33">
+        <f t="shared" si="10"/>
+        <v>8.0459146564717532E-2</v>
+      </c>
+      <c r="Q20" s="33">
+        <f t="shared" si="10"/>
+        <v>1.3015055402902265E-2</v>
+      </c>
+      <c r="R20" s="33">
+        <f t="shared" si="10"/>
+        <v>-5.0218145032471018E-2</v>
+      </c>
+      <c r="S20" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.10950450964821479</v>
+      </c>
+      <c r="T20" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.16509008656533619</v>
+      </c>
+      <c r="U20" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.21720599349153447</v>
+      </c>
+      <c r="V20" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.26606875379830064</v>
+      </c>
+      <c r="W20" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.31188146389676907</v>
+      </c>
+      <c r="X20" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.35483449451475857</v>
+      </c>
+      <c r="Y20" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.39510635723462539</v>
+      </c>
+      <c r="Z20" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.4328644099471981</v>
+      </c>
+      <c r="AA20" s="33">
+        <f t="shared" ref="AA20:AT20" si="11">MMULT($B14:$E14,Z$19:Z$22)+$F14</f>
+        <v>-0.46826556844219813</v>
+      </c>
+      <c r="AB20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.50145695183843331</v>
+      </c>
+      <c r="AC20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.53257649667318296</v>
+      </c>
+      <c r="AD20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.56175352904647657</v>
+      </c>
+      <c r="AE20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.58910930252549476</v>
+      </c>
+      <c r="AF20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.61475750185526779</v>
+      </c>
+      <c r="AG20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.63880471549218787</v>
+      </c>
+      <c r="AH20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.66135087852634222</v>
+      </c>
+      <c r="AI20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.68248968800626764</v>
+      </c>
+      <c r="AJ20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.70230899231712685</v>
+      </c>
+      <c r="AK20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.72089115626275579</v>
+      </c>
+      <c r="AL20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.73831340335500495</v>
+      </c>
+      <c r="AM20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.75464813673871078</v>
+      </c>
+      <c r="AN20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.76996324008351125</v>
+      </c>
+      <c r="AO20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.78432235969399788</v>
+      </c>
+      <c r="AP20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.79778516901015029</v>
+      </c>
+      <c r="AQ20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.8104076165974472</v>
+      </c>
+      <c r="AR20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.82224215865717132</v>
+      </c>
+      <c r="AS20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.83333797702320145</v>
+      </c>
+      <c r="AT20" s="33">
+        <f t="shared" si="11"/>
+        <v>-0.84374118355122874</v>
+      </c>
+      <c r="AU20" s="33">
+        <f t="shared" ref="AU20:DD20" si="12">MMULT($B14:$E14,AT$19:AT$22)+$F14</f>
+        <v>-0.85349501174979747</v>
+      </c>
+      <c r="AV20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.86263999644955258</v>
+      </c>
+      <c r="AW20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.87121414225735205</v>
+      </c>
+      <c r="AX20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.87925308149531101</v>
+      </c>
+      <c r="AY20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.88679022228113991</v>
+      </c>
+      <c r="AZ20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.89385688736515401</v>
+      </c>
+      <c r="BA20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.90048244430095159</v>
+      </c>
+      <c r="BB20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.90669442749070162</v>
+      </c>
+      <c r="BC20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.91251865261225285</v>
+      </c>
+      <c r="BD20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.91797932390358583</v>
+      </c>
+      <c r="BE20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.9230991347504649</v>
+      </c>
+      <c r="BF20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.92789936199531398</v>
+      </c>
+      <c r="BG20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.9323999543592365</v>
+      </c>
+      <c r="BH20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.93661961534464777</v>
+      </c>
+      <c r="BI20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.94057588096304356</v>
+      </c>
+      <c r="BJ20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.94428519261092636</v>
+      </c>
+      <c r="BK20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.94776296539674232</v>
+      </c>
+      <c r="BL20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.95102365220278906</v>
+      </c>
+      <c r="BM20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.95408080374830795</v>
+      </c>
+      <c r="BN20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.95694712490339096</v>
+      </c>
+      <c r="BO20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.95963452748770828</v>
+      </c>
+      <c r="BP20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.96215417977349182</v>
+      </c>
+      <c r="BQ20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.96451655289849447</v>
+      </c>
+      <c r="BR20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.96673146438180635</v>
+      </c>
+      <c r="BS20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.96880811892337104</v>
+      </c>
+      <c r="BT20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.97075514665675589</v>
+      </c>
+      <c r="BU20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.97258063901414737</v>
+      </c>
+      <c r="BV20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.97429218235262049</v>
+      </c>
+      <c r="BW20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.97589688948141728</v>
+      </c>
+      <c r="BX20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.97740142922126894</v>
+      </c>
+      <c r="BY20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.97881205411859251</v>
+      </c>
+      <c r="BZ20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.98013462642973992</v>
+      </c>
+      <c r="CA20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.98137464248328699</v>
+      </c>
+      <c r="CB20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.9825372555216012</v>
+      </c>
+      <c r="CC20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.98362729711662156</v>
+      </c>
+      <c r="CD20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.98464929724883832</v>
+      </c>
+      <c r="CE20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.98560750313292833</v>
+      </c>
+      <c r="CF20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.98650589686827206</v>
+      </c>
+      <c r="CG20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.98734821198771239</v>
+      </c>
+      <c r="CH20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.98813794897331797</v>
+      </c>
+      <c r="CI20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.98887838980364262</v>
+      </c>
+      <c r="CJ20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.98957261159292842</v>
+      </c>
+      <c r="CK20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99022349937893472</v>
+      </c>
+      <c r="CL20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.9908337581125426</v>
+      </c>
+      <c r="CM20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99140592389895166</v>
+      </c>
+      <c r="CN20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99194237453719469</v>
+      </c>
+      <c r="CO20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99244533940176205</v>
+      </c>
+      <c r="CP20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99291690870740745</v>
+      </c>
+      <c r="CQ20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99335904219563465</v>
+      </c>
+      <c r="CR20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99377357727896487</v>
+      </c>
+      <c r="CS20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99416223667683323</v>
+      </c>
+      <c r="CT20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99452663557484189</v>
+      </c>
+      <c r="CU20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99486828833712715</v>
+      </c>
+      <c r="CV20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99518861479973464</v>
+      </c>
+      <c r="CW20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99548894617115447</v>
+      </c>
+      <c r="CX20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99577053056454123</v>
+      </c>
+      <c r="CY20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99603453818460452</v>
+      </c>
+      <c r="CZ20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99628206619073167</v>
+      </c>
+      <c r="DA20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99651414325654764</v>
+      </c>
+      <c r="DB20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99673173384486202</v>
+      </c>
+      <c r="DC20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99693574221577452</v>
+      </c>
+      <c r="DD20" s="33">
+        <f t="shared" si="12"/>
+        <v>-0.99712701618458266</v>
+      </c>
+      <c r="DE20" s="33">
+        <f t="shared" ref="DE20:EM20" si="13">MMULT($B14:$E14,DD$19:DD$22)+$F14</f>
+        <v>-0.99730635064512563</v>
+      </c>
+      <c r="DF20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99747449087318896</v>
+      </c>
+      <c r="DG20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99763213562371678</v>
+      </c>
+      <c r="DH20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99777994003468495</v>
+      </c>
+      <c r="DI20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99791851834971568</v>
+      </c>
+      <c r="DJ20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99804844647074442</v>
+      </c>
+      <c r="DK20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99817026435134326</v>
+      </c>
+      <c r="DL20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99828447824065436</v>
+      </c>
+      <c r="DM20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99839156278725416</v>
+      </c>
+      <c r="DN20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99849196301168841</v>
+      </c>
+      <c r="DO20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.998586096155887</v>
+      </c>
+      <c r="DP20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99867435341712985</v>
+      </c>
+      <c r="DQ20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99875710157377884</v>
+      </c>
+      <c r="DR20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99883468450953372</v>
+      </c>
+      <c r="DS20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99890742464253468</v>
+      </c>
+      <c r="DT20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.9989756242652692</v>
+      </c>
+      <c r="DU20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99903956680082939</v>
+      </c>
+      <c r="DV20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99909951798076135</v>
+      </c>
+      <c r="DW20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99915572694938892</v>
+      </c>
+      <c r="DX20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99920842729920278</v>
+      </c>
+      <c r="DY20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99925783804162216</v>
+      </c>
+      <c r="DZ20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99930416451715831</v>
+      </c>
+      <c r="EA20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99934759924876793</v>
+      </c>
+      <c r="EB20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99938832274193623</v>
+      </c>
+      <c r="EC20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99942650423481916</v>
+      </c>
+      <c r="ED20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99946230240156164</v>
+      </c>
+      <c r="EE20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99949586601171236</v>
+      </c>
+      <c r="EF20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99952733454848119</v>
+      </c>
+      <c r="EG20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99955683878839729</v>
+      </c>
+      <c r="EH20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99958450134479215</v>
+      </c>
+      <c r="EI20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99961043717735376</v>
+      </c>
+      <c r="EJ20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99963475406987201</v>
+      </c>
+      <c r="EK20" s="33">
+        <f t="shared" si="13"/>
+        <v>-0.99965755307816884</v>
+      </c>
+      <c r="EL20" s="36">
+        <f t="shared" si="13"/>
+        <v>-0.99967892895006227</v>
+      </c>
+      <c r="EM20" s="33"/>
+      <c r="EN20" s="33"/>
+      <c r="EO20" s="33"/>
+      <c r="EP20" s="33"/>
+      <c r="EQ20" s="33"/>
+      <c r="ER20" s="33"/>
+      <c r="ES20" s="33"/>
+      <c r="ET20" s="33"/>
+      <c r="EU20" s="33"/>
+      <c r="EV20" s="33"/>
+      <c r="EW20" s="33"/>
+      <c r="EX20" s="33"/>
+      <c r="EY20" s="33"/>
+      <c r="EZ20" s="33"/>
+      <c r="FA20" s="33"/>
+      <c r="FB20" s="33"/>
+      <c r="FC20" s="33"/>
+      <c r="FD20" s="33"/>
+      <c r="FE20" s="33"/>
+      <c r="FF20" s="33"/>
+      <c r="FG20" s="33"/>
+      <c r="FH20" s="33"/>
+      <c r="FI20" s="33"/>
+      <c r="FJ20" s="33"/>
+      <c r="FK20" s="33"/>
+      <c r="FL20" s="33"/>
+      <c r="FM20" s="33"/>
+      <c r="FN20" s="33"/>
+      <c r="FO20" s="33"/>
+      <c r="FP20" s="33"/>
+      <c r="FQ20" s="33"/>
+      <c r="FR20" s="33"/>
+      <c r="FS20" s="33"/>
+      <c r="FT20" s="33"/>
+      <c r="FU20" s="33"/>
+      <c r="FV20" s="33"/>
+      <c r="FW20" s="33"/>
+      <c r="FX20" s="33"/>
+      <c r="FY20" s="33"/>
+      <c r="FZ20" s="33"/>
+      <c r="GA20" s="33"/>
+      <c r="GB20" s="33"/>
+      <c r="GC20" s="33"/>
+      <c r="GD20" s="33"/>
+      <c r="GE20" s="33"/>
+      <c r="GF20" s="33"/>
+      <c r="GG20" s="33"/>
+      <c r="GH20" s="33"/>
+      <c r="GI20" s="33"/>
+      <c r="GJ20" s="33"/>
+      <c r="GK20" s="33"/>
+      <c r="GL20" s="33"/>
+      <c r="GM20" s="33"/>
+      <c r="GN20" s="33"/>
+      <c r="GO20" s="33"/>
+      <c r="GP20" s="33"/>
+      <c r="GQ20" s="33"/>
+      <c r="GR20" s="33"/>
+      <c r="GS20" s="33"/>
+      <c r="GT20" s="33"/>
+      <c r="GU20" s="33"/>
+      <c r="GV20" s="33"/>
+      <c r="GW20" s="33"/>
+      <c r="GX20" s="33"/>
+      <c r="GY20" s="33"/>
+      <c r="GZ20" s="33"/>
+      <c r="HA20" s="33"/>
+      <c r="HB20" s="33"/>
+      <c r="HC20" s="33"/>
+      <c r="HD20" s="33"/>
+      <c r="HE20" s="33"/>
+      <c r="HF20" s="33"/>
+      <c r="HG20" s="33"/>
+      <c r="HH20" s="33"/>
+      <c r="HI20" s="33"/>
+      <c r="HJ20" s="33"/>
+      <c r="HK20" s="33"/>
+      <c r="HL20" s="33"/>
+      <c r="HM20" s="33"/>
+      <c r="HN20" s="33"/>
+    </row>
+    <row r="21" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.4</v>
+      </c>
+      <c r="D21" s="33">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" si="5"/>
+        <v>0.31333333333333335</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="5"/>
+        <v>0.46638888888888885</v>
+      </c>
+      <c r="G21" s="33">
+        <f t="shared" si="5"/>
+        <v>0.65316666666666656</v>
+      </c>
+      <c r="H21" s="33">
+        <f t="shared" si="5"/>
+        <v>0.78277314814814802</v>
+      </c>
+      <c r="I21" s="33">
+        <f t="shared" si="5"/>
+        <v>0.92828024691358013</v>
+      </c>
+      <c r="J21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.0551360339506171</v>
+      </c>
+      <c r="K21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.1773078652263371</v>
+      </c>
+      <c r="L21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.2908323563957476</v>
+      </c>
+      <c r="M21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.3976173012688613</v>
+      </c>
+      <c r="N21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.4975942290023432</v>
+      </c>
+      <c r="O21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.5913983138779337</v>
+      </c>
+      <c r="P21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.6793138926779689</v>
+      </c>
+      <c r="Q21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.7617572235954246</v>
+      </c>
+      <c r="R21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.8390474997744479</v>
+      </c>
+      <c r="S21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.9115161366824167</v>
+      </c>
+      <c r="T21" s="33">
+        <f t="shared" si="5"/>
+        <v>1.9794600173782171</v>
+      </c>
+      <c r="U21" s="33">
+        <f t="shared" si="5"/>
+        <v>2.0431632656095653</v>
+      </c>
+      <c r="V21" s="33">
+        <f t="shared" si="5"/>
+        <v>2.102889889681737</v>
+      </c>
+      <c r="W21" s="33">
+        <f t="shared" si="5"/>
+        <v>2.1588884066976806</v>
+      </c>
+      <c r="X21" s="33">
+        <f t="shared" si="5"/>
+        <v>2.2113914038953739</v>
+      </c>
+      <c r="Y21" s="33">
+        <f t="shared" si="5"/>
+        <v>2.2606171289054919</v>
+      </c>
+      <c r="Z21" s="33">
+        <f t="shared" si="5"/>
+        <v>2.3067701289882603</v>
+      </c>
+      <c r="AA21" s="33">
+        <f t="shared" ref="AA21:AT21" si="14">MMULT($B15:$E15,Z$19:Z$22)+$F15</f>
+        <v>2.3500422166572648</v>
+      </c>
+      <c r="AB21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.3906132169975494</v>
+      </c>
+      <c r="AC21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.4286517363486744</v>
+      </c>
+      <c r="AD21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.4643158538753047</v>
+      </c>
+      <c r="AE21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.4977537823925648</v>
+      </c>
+      <c r="AF21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.529104482655685</v>
+      </c>
+      <c r="AG21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.5584982415544038</v>
+      </c>
+      <c r="AH21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.5860572132575879</v>
+      </c>
+      <c r="AI21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.6118959269880206</v>
+      </c>
+      <c r="AJ21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.6361217629266869</v>
+      </c>
+      <c r="AK21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.6588353984853104</v>
+      </c>
+      <c r="AL21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.6801312266902206</v>
+      </c>
+      <c r="AM21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.7000977484639122</v>
+      </c>
+      <c r="AN21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.7188179404141941</v>
+      </c>
+      <c r="AO21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.7363695996680564</v>
+      </c>
+      <c r="AP21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.7528256671796156</v>
+      </c>
+      <c r="AQ21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.7682545308573112</v>
+      </c>
+      <c r="AR21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.7827203097694118</v>
+      </c>
+      <c r="AS21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.7962831206092229</v>
+      </c>
+      <c r="AT21" s="33">
+        <f t="shared" si="14"/>
+        <v>2.8089993275272351</v>
+      </c>
+      <c r="AU21" s="33">
+        <f t="shared" ref="AU21:DD21" si="15">MMULT($B15:$E15,AT$19:AT$22)+$F15</f>
+        <v>2.8209217763685217</v>
+      </c>
+      <c r="AV21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.8321000142888058</v>
+      </c>
+      <c r="AW21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.842580495661875</v>
+      </c>
+      <c r="AX21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.8524067751340563</v>
+      </c>
+      <c r="AY21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.8616196886280427</v>
+      </c>
+      <c r="AZ21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.8702575230482785</v>
+      </c>
+      <c r="BA21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.878356175393177</v>
+      </c>
+      <c r="BB21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.8859493019353892</v>
+      </c>
+      <c r="BC21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.8930684580901</v>
+      </c>
+      <c r="BD21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.8997432295526058</v>
+      </c>
+      <c r="BE21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9060013552501585</v>
+      </c>
+      <c r="BF21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9118688426190324</v>
+      </c>
+      <c r="BG21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9173700756858829</v>
+      </c>
+      <c r="BH21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9225279164025695</v>
+      </c>
+      <c r="BI21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9273637996555455</v>
+      </c>
+      <c r="BJ21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9318978223446845</v>
+      </c>
+      <c r="BK21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9361488269017051</v>
+      </c>
+      <c r="BL21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9401344795953057</v>
+      </c>
+      <c r="BM21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9438713439484077</v>
+      </c>
+      <c r="BN21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9473749495726271</v>
+      </c>
+      <c r="BO21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.95065985670603</v>
+      </c>
+      <c r="BP21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9537397167223762</v>
+      </c>
+      <c r="BQ21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9566273288633207</v>
+      </c>
+      <c r="BR21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9593346934293319</v>
+      </c>
+      <c r="BS21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9618730616503814</v>
+      </c>
+      <c r="BT21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9642529824436612</v>
+      </c>
+      <c r="BU21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9664843462526274</v>
+      </c>
+      <c r="BV21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9685764261495837</v>
+      </c>
+      <c r="BW21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9705379163725847</v>
+      </c>
+      <c r="BX21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.972376968456842</v>
+      </c>
+      <c r="BY21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.974101225110763</v>
+      </c>
+      <c r="BZ21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9757178519774192</v>
+      </c>
+      <c r="CA21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9772335674134323</v>
+      </c>
+      <c r="CB21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.978654670409028</v>
+      </c>
+      <c r="CC21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9799870667653034</v>
+      </c>
+      <c r="CD21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9812362936374686</v>
+      </c>
+      <c r="CE21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9824075425460932</v>
+      </c>
+      <c r="CF21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9835056809519491</v>
+      </c>
+      <c r="CG21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9845352724841478</v>
+      </c>
+      <c r="CH21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9855005959056053</v>
+      </c>
+      <c r="CI21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.986405662894672</v>
+      </c>
+      <c r="CJ21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9872542347168083</v>
+      </c>
+      <c r="CK21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9880498378556068</v>
+      </c>
+      <c r="CL21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9887957786681025</v>
+      </c>
+      <c r="CM21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9894951571252912</v>
+      </c>
+      <c r="CN21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9901508796949452</v>
+      </c>
+      <c r="CO21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9907656714202751</v>
+      </c>
+      <c r="CP21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9913420872446279</v>
+      </c>
+      <c r="CQ21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9918825226292887</v>
+      </c>
+      <c r="CR21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9923892235085034</v>
+      </c>
+      <c r="CS21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9928642956231069</v>
+      </c>
+      <c r="CT21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9933097132715298</v>
+      </c>
+      <c r="CU21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9937273275145642</v>
+      </c>
+      <c r="CV21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9941188738679747</v>
+      </c>
+      <c r="CW21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9944859795149368</v>
+      </c>
+      <c r="CX21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9948301700682571</v>
+      </c>
+      <c r="CY21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9951528759105006</v>
+      </c>
+      <c r="CZ21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9954554381383516</v>
+      </c>
+      <c r="DA21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9957391141359286</v>
+      </c>
+      <c r="DB21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9960050828002021</v>
+      </c>
+      <c r="DC21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9962544494402414</v>
+      </c>
+      <c r="DD21" s="33">
+        <f t="shared" si="15"/>
+        <v>2.9964882503706414</v>
+      </c>
+      <c r="DE21" s="33">
+        <f t="shared" ref="DE21:EM21" si="16">MMULT($B15:$E15,DD$19:DD$22)+$F15</f>
+        <v>2.9967074572182271</v>
+      </c>
+      <c r="DF21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9969129809599249</v>
+      </c>
+      <c r="DG21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9971056757085921</v>
+      </c>
+      <c r="DH21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9972863422625244</v>
+      </c>
+      <c r="DI21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9974557314334049</v>
+      </c>
+      <c r="DJ21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9976145471665174</v>
+      </c>
+      <c r="DK21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9977634494661918</v>
+      </c>
+      <c r="DL21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9979030571386414</v>
+      </c>
+      <c r="DM21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9980339503635918</v>
+      </c>
+      <c r="DN21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9981566731053815</v>
+      </c>
+      <c r="DO21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9982717353735628</v>
+      </c>
+      <c r="DP21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9983796153423934</v>
+      </c>
+      <c r="DQ21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.998480761338024</v>
+      </c>
+      <c r="DR21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9985755937016529</v>
+      </c>
+      <c r="DS21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9986645065363629</v>
+      </c>
+      <c r="DT21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9987478693449439</v>
+      </c>
+      <c r="DU21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9988260285654547</v>
+      </c>
+      <c r="DV21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9988993090109539</v>
+      </c>
+      <c r="DW21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9989680152193516</v>
+      </c>
+      <c r="DX21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9990324327190021</v>
+      </c>
+      <c r="DY21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9990928292153018</v>
+      </c>
+      <c r="DZ21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9991494557032135</v>
+      </c>
+      <c r="EA21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.999202547510349</v>
+      </c>
+      <c r="EB21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.999252325274941</v>
+      </c>
+      <c r="EC21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9992989958627669</v>
+      </c>
+      <c r="ED21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9993427532268404</v>
+      </c>
+      <c r="EE21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9993837792134386</v>
+      </c>
+      <c r="EF21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9994222443178153</v>
+      </c>
+      <c r="EG21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9994583083927449</v>
+      </c>
+      <c r="EH21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.999492121312834</v>
+      </c>
+      <c r="EI21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9995238235973698</v>
+      </c>
+      <c r="EJ21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9995535469942891</v>
+      </c>
+      <c r="EK21" s="33">
+        <f t="shared" si="16"/>
+        <v>2.9995814150276932</v>
+      </c>
+      <c r="EL21" s="36">
+        <f t="shared" si="16"/>
+        <v>2.9996075435111869</v>
+      </c>
+      <c r="EM21" s="33"/>
+      <c r="EN21" s="33"/>
+      <c r="EO21" s="33"/>
+      <c r="EP21" s="33"/>
+      <c r="EQ21" s="33"/>
+      <c r="ER21" s="33"/>
+      <c r="ES21" s="33"/>
+      <c r="ET21" s="33"/>
+      <c r="EU21" s="33"/>
+      <c r="EV21" s="33"/>
+      <c r="EW21" s="33"/>
+      <c r="EX21" s="33"/>
+      <c r="EY21" s="33"/>
+      <c r="EZ21" s="33"/>
+      <c r="FA21" s="33"/>
+      <c r="FB21" s="33"/>
+      <c r="FC21" s="33"/>
+      <c r="FD21" s="33"/>
+      <c r="FE21" s="33"/>
+      <c r="FF21" s="33"/>
+      <c r="FG21" s="33"/>
+      <c r="FH21" s="33"/>
+      <c r="FI21" s="33"/>
+      <c r="FJ21" s="33"/>
+      <c r="FK21" s="33"/>
+      <c r="FL21" s="33"/>
+      <c r="FM21" s="33"/>
+      <c r="FN21" s="33"/>
+      <c r="FO21" s="33"/>
+      <c r="FP21" s="33"/>
+      <c r="FQ21" s="33"/>
+      <c r="FR21" s="33"/>
+      <c r="FS21" s="33"/>
+      <c r="FT21" s="33"/>
+      <c r="FU21" s="33"/>
+      <c r="FV21" s="33"/>
+      <c r="FW21" s="33"/>
+      <c r="FX21" s="33"/>
+      <c r="FY21" s="33"/>
+      <c r="FZ21" s="33"/>
+      <c r="GA21" s="33"/>
+      <c r="GB21" s="33"/>
+      <c r="GC21" s="33"/>
+      <c r="GD21" s="33"/>
+      <c r="GE21" s="33"/>
+      <c r="GF21" s="33"/>
+      <c r="GG21" s="33"/>
+      <c r="GH21" s="33"/>
+      <c r="GI21" s="33"/>
+      <c r="GJ21" s="33"/>
+      <c r="GK21" s="33"/>
+      <c r="GL21" s="33"/>
+      <c r="GM21" s="33"/>
+      <c r="GN21" s="33"/>
+      <c r="GO21" s="33"/>
+      <c r="GP21" s="33"/>
+      <c r="GQ21" s="33"/>
+      <c r="GR21" s="33"/>
+      <c r="GS21" s="33"/>
+      <c r="GT21" s="33"/>
+      <c r="GU21" s="33"/>
+      <c r="GV21" s="33"/>
+      <c r="GW21" s="33"/>
+      <c r="GX21" s="33"/>
+      <c r="GY21" s="33"/>
+      <c r="GZ21" s="33"/>
+      <c r="HA21" s="33"/>
+      <c r="HB21" s="33"/>
+      <c r="HC21" s="33"/>
+      <c r="HD21" s="33"/>
+      <c r="HE21" s="33"/>
+      <c r="HF21" s="33"/>
+      <c r="HG21" s="33"/>
+      <c r="HH21" s="33"/>
+      <c r="HI21" s="33"/>
+      <c r="HJ21" s="33"/>
+      <c r="HK21" s="33"/>
+      <c r="HL21" s="33"/>
+      <c r="HM21" s="33"/>
+      <c r="HN21" s="33"/>
+    </row>
+    <row r="22" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="21">
+        <v>0</v>
+      </c>
+      <c r="C22" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="D22" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.81666666666666665</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.87222222222222223</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.1139814814814815</v>
+      </c>
+      <c r="G22" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.2855555555555553</v>
+      </c>
+      <c r="H22" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.4545108024691356</v>
+      </c>
+      <c r="I22" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.6144717078189299</v>
+      </c>
+      <c r="J22" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.7629418467078186</v>
+      </c>
+      <c r="K22" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.9026619513031546</v>
+      </c>
+      <c r="L22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.0335972195073158</v>
+      </c>
+      <c r="M22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.1563198535379513</v>
+      </c>
+      <c r="N22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.2714153956451946</v>
+      </c>
+      <c r="O22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.3793112801529239</v>
+      </c>
+      <c r="P22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.4804774168956469</v>
+      </c>
+      <c r="Q22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.5753272175487067</v>
+      </c>
+      <c r="R22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.6642567644723223</v>
+      </c>
+      <c r="S22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.7476351298480046</v>
+      </c>
+      <c r="T22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.8258089902373018</v>
+      </c>
+      <c r="U22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.8991031306974513</v>
+      </c>
+      <c r="V22" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.9678221958451538</v>
+      </c>
+      <c r="W22" s="33">
+        <f t="shared" si="5"/>
+        <v>-3.0322517417721384</v>
+      </c>
+      <c r="X22" s="33">
+        <f t="shared" si="5"/>
+        <v>-3.0926595358519382</v>
+      </c>
+      <c r="Y22" s="33">
+        <f t="shared" si="5"/>
+        <v>-3.1492966149207975</v>
+      </c>
+      <c r="Z22" s="33">
+        <f t="shared" si="5"/>
+        <v>-3.2023983526632978</v>
+      </c>
+      <c r="AA22" s="33">
+        <f t="shared" ref="AA22:AT22" si="17">MMULT($B16:$E16,Z$19:Z$22)+$F16</f>
+        <v>-3.2521854277576505</v>
+      </c>
+      <c r="AB22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.2988647450097748</v>
+      </c>
+      <c r="AC22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.3426302935697154</v>
+      </c>
+      <c r="AD22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.3836639537882425</v>
+      </c>
+      <c r="AE22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.4221362527829022</v>
+      </c>
+      <c r="AF22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.4582070732382824</v>
+      </c>
+      <c r="AG22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.4920263177895139</v>
+      </c>
+      <c r="AH22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.5237345320094016</v>
+      </c>
+      <c r="AI22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.5534634884756908</v>
+      </c>
+      <c r="AJ22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.5813367343941342</v>
+      </c>
+      <c r="AK22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.6074701050325078</v>
+      </c>
+      <c r="AL22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.6319722051080663</v>
+      </c>
+      <c r="AM22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.6549448601252674</v>
+      </c>
+      <c r="AN22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.6764835395409974</v>
+      </c>
+      <c r="AO22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.696677753515226</v>
+      </c>
+      <c r="AP22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.7156114248961711</v>
+      </c>
+      <c r="AQ22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.7333632379857575</v>
+      </c>
+      <c r="AR22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.7500069655348027</v>
+      </c>
+      <c r="AS22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.7656117753268434</v>
+      </c>
+      <c r="AT22" s="33">
+        <f t="shared" si="17"/>
+        <v>-3.7802425176246968</v>
+      </c>
+      <c r="AU22" s="33">
+        <f t="shared" ref="AU22:DD22" si="18">MMULT($B16:$E16,AT$19:AT$22)+$F16</f>
+        <v>-3.7939599946743292</v>
+      </c>
+      <c r="AV22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.8068212133860282</v>
+      </c>
+      <c r="AW22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.8188796222429668</v>
+      </c>
+      <c r="AX22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.8301853334217104</v>
+      </c>
+      <c r="AY22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.8407853310477313</v>
+      </c>
+      <c r="AZ22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.8507236664514277</v>
+      </c>
+      <c r="BA22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.860041641236053</v>
+      </c>
+      <c r="BB22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.8687779789183798</v>
+      </c>
+      <c r="BC22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.8769689858553789</v>
+      </c>
+      <c r="BD22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.8846487021256975</v>
+      </c>
+      <c r="BE22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.8918490429929711</v>
+      </c>
+      <c r="BF22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.8985999315388549</v>
+      </c>
+      <c r="BG22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9049294230169722</v>
+      </c>
+      <c r="BH22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9108638214445657</v>
+      </c>
+      <c r="BI22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9164277889163901</v>
+      </c>
+      <c r="BJ22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.921644448095114</v>
+      </c>
+      <c r="BK22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9265354783041837</v>
+      </c>
+      <c r="BL22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9311212056224623</v>
+      </c>
+      <c r="BM22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9354206873550868</v>
+      </c>
+      <c r="BN22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.939451791231563</v>
+      </c>
+      <c r="BO22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9432312696602381</v>
+      </c>
+      <c r="BP22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.946774829347742</v>
+      </c>
+      <c r="BQ22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9500971965727096</v>
+      </c>
+      <c r="BR22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9532121783850567</v>
+      </c>
+      <c r="BS22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9561327199851339</v>
+      </c>
+      <c r="BT22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9588709585212216</v>
+      </c>
+      <c r="BU22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9614382735289313</v>
+      </c>
+      <c r="BV22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.963845334222126</v>
+      </c>
+      <c r="BW22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.966102143831904</v>
+      </c>
+      <c r="BX22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9682180811778891</v>
+      </c>
+      <c r="BY22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.97020193964461</v>
+      </c>
+      <c r="BZ22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9720619637249306</v>
+      </c>
+      <c r="CA22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9738058832824024</v>
+      </c>
+      <c r="CB22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9754409456749329</v>
+      </c>
+      <c r="CC22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9769739458732576</v>
+      </c>
+      <c r="CD22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9784112546993926</v>
+      </c>
+      <c r="CE22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9797588453024084</v>
+      </c>
+      <c r="CF22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9810223179815689</v>
+      </c>
+      <c r="CG22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9822069234599771</v>
+      </c>
+      <c r="CH22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9833175847054645</v>
+      </c>
+      <c r="CI22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9843589173893927</v>
+      </c>
+      <c r="CJ22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9853352490684024</v>
+      </c>
+      <c r="CK22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9862506371688142</v>
+      </c>
+      <c r="CL22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.987108885848428</v>
+      </c>
+      <c r="CM22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9879135618057924</v>
+      </c>
+      <c r="CN22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9886680091026436</v>
+      </c>
+      <c r="CO22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9893753630611113</v>
+      </c>
+      <c r="CP22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9900385632934521</v>
+      </c>
+      <c r="CQ22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9906603659184476</v>
+      </c>
+      <c r="CR22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9912433550152504</v>
+      </c>
+      <c r="CS22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9917899533622632</v>
+      </c>
+      <c r="CT22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9923024325056913</v>
+      </c>
+      <c r="CU22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9927829221996021</v>
+      </c>
+      <c r="CV22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.993233419256732</v>
+      </c>
+      <c r="CW22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.993655795846812</v>
+      </c>
+      <c r="CX22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9940518072769073</v>
+      </c>
+      <c r="CY22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9944230992860978</v>
+      </c>
+      <c r="CZ22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9947712148848216</v>
+      </c>
+      <c r="DA22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9950976007672936</v>
+      </c>
+      <c r="DB22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9954036133236621</v>
+      </c>
+      <c r="DC22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9956905242768745</v>
+      </c>
+      <c r="DD22" s="33">
+        <f t="shared" si="18"/>
+        <v>-3.9959595259676886</v>
+      </c>
+      <c r="DE22" s="33">
+        <f t="shared" ref="DE22:EM22" si="19">MMULT($B16:$E16,DD$19:DD$22)+$F16</f>
+        <v>-3.996211736309784</v>
+      </c>
+      <c r="DF22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9964482034355755</v>
+      </c>
+      <c r="DG22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9966699100520278</v>
+      </c>
+      <c r="DH22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9968777775245741</v>
+      </c>
+      <c r="DI22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.997072669706117</v>
+      </c>
+      <c r="DJ22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9972553965270152</v>
+      </c>
+      <c r="DK22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9974267173609821</v>
+      </c>
+      <c r="DL22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9975873441808814</v>
+      </c>
+      <c r="DM22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9977379445175329</v>
+      </c>
+      <c r="DN22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9978791442338308</v>
+      </c>
+      <c r="DO22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9980115301256949</v>
+      </c>
+      <c r="DP22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9981356523606686</v>
+      </c>
+      <c r="DQ22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9982520267643009</v>
+      </c>
+      <c r="DR22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9983611369638026</v>
+      </c>
+      <c r="DS22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9984634363979041</v>
+      </c>
+      <c r="DT22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9985593502012442</v>
+      </c>
+      <c r="DU22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9986492769711424</v>
+      </c>
+      <c r="DV22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9987335904240839</v>
+      </c>
+      <c r="DW22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9988126409488047</v>
+      </c>
+      <c r="DX22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9988867570624334</v>
+      </c>
+      <c r="DY22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9989562467757378</v>
+      </c>
+      <c r="DZ22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9990213988731522</v>
+      </c>
+      <c r="EA22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9990824841129049</v>
+      </c>
+      <c r="EB22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9991397563522293</v>
+      </c>
+      <c r="EC22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9991934536023428</v>
+      </c>
+      <c r="ED22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9992437990175689</v>
+      </c>
+      <c r="EE22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9992910018227219</v>
+      </c>
+      <c r="EF22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9993352581825961</v>
+      </c>
+      <c r="EG22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9993767520171888</v>
+      </c>
+      <c r="EH22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9994156557660308</v>
+      </c>
+      <c r="EI22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9994521311048081</v>
+      </c>
+      <c r="EJ22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.9994863296172536</v>
+      </c>
+      <c r="EK22" s="33">
+        <f t="shared" si="19"/>
+        <v>-3.999518393425094</v>
+      </c>
+      <c r="EL22" s="37">
+        <f t="shared" si="19"/>
+        <v>-3.9995484557786796</v>
+      </c>
+      <c r="EM22" s="33"/>
+      <c r="EN22" s="33"/>
+      <c r="EO22" s="33"/>
+      <c r="EP22" s="33"/>
+      <c r="EQ22" s="33"/>
+      <c r="ER22" s="33"/>
+      <c r="ES22" s="33"/>
+      <c r="ET22" s="33"/>
+      <c r="EU22" s="33"/>
+      <c r="EV22" s="33"/>
+      <c r="EW22" s="33"/>
+      <c r="EX22" s="33"/>
+      <c r="EY22" s="33"/>
+      <c r="EZ22" s="33"/>
+      <c r="FA22" s="33"/>
+      <c r="FB22" s="33"/>
+      <c r="FC22" s="33"/>
+      <c r="FD22" s="33"/>
+      <c r="FE22" s="33"/>
+      <c r="FF22" s="33"/>
+      <c r="FG22" s="33"/>
+      <c r="FH22" s="33"/>
+      <c r="FI22" s="33"/>
+      <c r="FJ22" s="33"/>
+      <c r="FK22" s="33"/>
+      <c r="FL22" s="33"/>
+      <c r="FM22" s="33"/>
+      <c r="FN22" s="33"/>
+      <c r="FO22" s="33"/>
+      <c r="FP22" s="33"/>
+      <c r="FQ22" s="33"/>
+      <c r="FR22" s="33"/>
+      <c r="FS22" s="33"/>
+      <c r="FT22" s="33"/>
+      <c r="FU22" s="33"/>
+      <c r="FV22" s="33"/>
+      <c r="FW22" s="33"/>
+      <c r="FX22" s="33"/>
+      <c r="FY22" s="33"/>
+      <c r="FZ22" s="33"/>
+      <c r="GA22" s="33"/>
+      <c r="GB22" s="33"/>
+      <c r="GC22" s="33"/>
+      <c r="GD22" s="33"/>
+      <c r="GE22" s="33"/>
+      <c r="GF22" s="33"/>
+      <c r="GG22" s="33"/>
+      <c r="GH22" s="33"/>
+      <c r="GI22" s="33"/>
+      <c r="GJ22" s="33"/>
+      <c r="GK22" s="33"/>
+      <c r="GL22" s="33"/>
+      <c r="GM22" s="33"/>
+      <c r="GN22" s="33"/>
+      <c r="GO22" s="33"/>
+      <c r="GP22" s="33"/>
+      <c r="GQ22" s="33"/>
+      <c r="GR22" s="33"/>
+      <c r="GS22" s="33"/>
+      <c r="GT22" s="33"/>
+      <c r="GU22" s="33"/>
+      <c r="GV22" s="33"/>
+      <c r="GW22" s="33"/>
+      <c r="GX22" s="33"/>
+      <c r="GY22" s="33"/>
+      <c r="GZ22" s="33"/>
+      <c r="HA22" s="33"/>
+      <c r="HB22" s="33"/>
+      <c r="HC22" s="33"/>
+      <c r="HD22" s="33"/>
+      <c r="HE22" s="33"/>
+      <c r="HF22" s="33"/>
+      <c r="HG22" s="33"/>
+      <c r="HH22" s="33"/>
+      <c r="HI22" s="33"/>
+      <c r="HJ22" s="33"/>
+      <c r="HK22" s="33"/>
+      <c r="HL22" s="33"/>
+      <c r="HM22" s="33"/>
+      <c r="HN22" s="33"/>
+    </row>
+    <row r="23" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="B23" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA24" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BV24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BX24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="BZ24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="CA24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CB24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="CF24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="CH24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="CL24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="CN24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="CP24" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="CQ24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="CS24" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="CT24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="CU24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="CV24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CW24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="CX24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="CZ24" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="DA24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="DB24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="DC24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="DD24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="DE24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="DF24" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="DG24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="DH24" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="DI24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="DJ24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DK24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DL24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="DM24" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="DN24" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="DO24" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="DP24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="DQ24" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DR24" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="DT24" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="DU24" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DV24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DW24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="DX24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="DZ24" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="EA24" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="EB24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="EC24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="ED24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="EE24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="EF24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="EG24" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="EH24" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="EJ24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="EK24" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL24" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="33">
+        <f>$B13*B$25+$C13*B$26+$D13*B$27+$E13*B$28+$F13</f>
+        <v>2.25</v>
+      </c>
+      <c r="D25" s="33">
+        <f t="shared" ref="D25:S25" si="20">$B13*C$25+$C13*C$26+$D13*C$27+$E13*C$28+$F13</f>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="E25" s="33">
+        <f t="shared" si="20"/>
+        <v>1.7152777777777777</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="20"/>
+        <v>1.923888888888889</v>
+      </c>
+      <c r="G25" s="33">
+        <f>$B13*F$25+$C13*F$26+$D13*F$27+$E13*F$28+$F13</f>
+        <v>2.0571990740740738</v>
+      </c>
+      <c r="H25" s="33">
+        <f t="shared" si="20"/>
+        <v>2.2778688271604937</v>
+      </c>
+      <c r="I25" s="33">
+        <f>$B13*H$25+$C13*H$26+$D13*H$27+$E13*H$28+$F13</f>
+        <v>2.4322650462962958</v>
+      </c>
+      <c r="J25" s="33">
+        <f t="shared" si="20"/>
+        <v>2.5977137860082302</v>
+      </c>
+      <c r="K25" s="33">
+        <f t="shared" si="20"/>
+        <v>2.7461759280692726</v>
+      </c>
+      <c r="L25" s="33">
+        <f t="shared" si="20"/>
+        <v>2.8872948478223588</v>
+      </c>
+      <c r="M25" s="33">
+        <f t="shared" si="20"/>
+        <v>3.019011584397862</v>
+      </c>
+      <c r="N25" s="33">
+        <f>$B13*M$25+$C13*M$26+$D13*M$27+$E13*M$28+$F13</f>
+        <v>3.1427453824540845</v>
+      </c>
+      <c r="O25" s="33">
+        <f t="shared" si="20"/>
+        <v>3.2586356229310742</v>
+      </c>
+      <c r="P25" s="33">
+        <f t="shared" si="20"/>
+        <v>3.3673538672901819</v>
+      </c>
+      <c r="Q25" s="33">
+        <f t="shared" si="20"/>
+        <v>3.469255846226118</v>
+      </c>
+      <c r="R25" s="33">
+        <f t="shared" si="20"/>
+        <v>3.5648103899951176</v>
+      </c>
+      <c r="S25" s="33">
+        <f t="shared" si="20"/>
+        <v>3.6543946973470716</v>
+      </c>
+      <c r="T25" s="33">
+        <f t="shared" ref="T25:BI25" si="21">$B13*S$25+$C13*S$26+$D13*S$27+$E13*S$28+$F13</f>
+        <v>3.7383893573359197</v>
+      </c>
+      <c r="U25" s="33">
+        <f t="shared" si="21"/>
+        <v>3.8171400563163309</v>
+      </c>
+      <c r="V25" s="33">
+        <f t="shared" si="21"/>
+        <v>3.8909754459529413</v>
+      </c>
+      <c r="W25" s="33">
+        <f t="shared" si="21"/>
+        <v>3.960201794160453</v>
+      </c>
+      <c r="X25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.0251070369716446</v>
+      </c>
+      <c r="Y25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.0859608001789098</v>
+      </c>
+      <c r="Z25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.143016025296431</v>
+      </c>
+      <c r="AA25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.1965098017147948</v>
+      </c>
+      <c r="AB25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.246664446714048</v>
+      </c>
+      <c r="AC25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.2936883886673787</v>
+      </c>
+      <c r="AD25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.3377770505980973</v>
+      </c>
+      <c r="AE25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.3791136549297169</v>
+      </c>
+      <c r="AF25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.4178699880571717</v>
+      </c>
+      <c r="AG25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.4542071129193976</v>
+      </c>
+      <c r="AH25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.4882760389118967</v>
+      </c>
+      <c r="AI25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.5202183492063615</v>
+      </c>
+      <c r="AJ25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.5501667892441491</v>
+      </c>
+      <c r="AK25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.5782458183535786</v>
+      </c>
+      <c r="AL25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.604572126995361</v>
+      </c>
+      <c r="AM25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.6292551216951683</v>
+      </c>
+      <c r="AN25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.6523973797172893</v>
+      </c>
+      <c r="AO25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.6740950753524011</v>
+      </c>
+      <c r="AP25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.6944383795980418</v>
+      </c>
+      <c r="AQ25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.7135118348897862</v>
+      </c>
+      <c r="AR25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.7313947064417068</v>
+      </c>
+      <c r="AS25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.7481613116556449</v>
+      </c>
+      <c r="AT25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.7638813289685178</v>
+      </c>
+      <c r="AU25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.7786200874210412</v>
+      </c>
+      <c r="AV25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.7924388381512895</v>
+      </c>
+      <c r="AW25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8053950089413808</v>
+      </c>
+      <c r="AX25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8175424428750819</v>
+      </c>
+      <c r="AY25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8289316220981977</v>
+      </c>
+      <c r="AZ25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8396098776116023</v>
+      </c>
+      <c r="BA25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8496215859687855</v>
+      </c>
+      <c r="BB25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8590083536953586</v>
+      </c>
+      <c r="BC25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8678091901968923</v>
+      </c>
+      <c r="BD25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8760606698737012</v>
+      </c>
+      <c r="BE25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8837970841162477</v>
+      </c>
+      <c r="BF25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8910505838128513</v>
+      </c>
+      <c r="BG25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.8978513129619312</v>
+      </c>
+      <c r="BH25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.9042275339440309</v>
+      </c>
+      <c r="BI25" s="33">
+        <f t="shared" si="21"/>
+        <v>4.9102057449742507</v>
+      </c>
+      <c r="BJ25" s="33">
+        <f t="shared" ref="BJ25:DU25" si="22">$B13*BI$25+$C13*BI$26+$D13*BI$27+$E13*BI$28+$F13</f>
+        <v>4.9158107902231816</v>
+      </c>
+      <c r="BK25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9210659630639766</v>
+      </c>
+      <c r="BL25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9259931028746493</v>
+      </c>
+      <c r="BM25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9306126857978736</v>
+      </c>
+      <c r="BN25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9349439098354599</v>
+      </c>
+      <c r="BO25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9390047746311661</v>
+      </c>
+      <c r="BP25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9428121562733764</v>
+      </c>
+      <c r="BQ25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9463818774285286</v>
+      </c>
+      <c r="BR25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9497287730967381</v>
+      </c>
+      <c r="BS25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.952866752262902</v>
+      </c>
+      <c r="BT25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9558088556994715</v>
+      </c>
+      <c r="BU25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9585673101611238</v>
+      </c>
+      <c r="BV25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9611535791965444</v>
+      </c>
+      <c r="BW25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9635784107884984</v>
+      </c>
+      <c r="BX25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9658518820201465</v>
+      </c>
+      <c r="BY25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9679834409532653</v>
+      </c>
+      <c r="BZ25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9699819458923686</v>
+      </c>
+      <c r="CA25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9718557021979342</v>
+      </c>
+      <c r="CB25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9736124968017172</v>
+      </c>
+      <c r="CC25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9752596305675709</v>
+      </c>
+      <c r="CD25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9768039486322877</v>
+      </c>
+      <c r="CE25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9782518688525208</v>
+      </c>
+      <c r="CF25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9796094084760334</v>
+      </c>
+      <c r="CG25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9808822091480973</v>
+      </c>
+      <c r="CH25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9820755603569671</v>
+      </c>
+      <c r="CI25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9831944214158632</v>
+      </c>
+      <c r="CJ25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9842434420728257</v>
+      </c>
+      <c r="CK25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9852269818340709</v>
+      </c>
+      <c r="CL25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9861491280811725</v>
+      </c>
+      <c r="CM25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9870137130573484</v>
+      </c>
+      <c r="CN25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9878243297934439</v>
+      </c>
+      <c r="CO25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9885843470398061</v>
+      </c>
+      <c r="CP25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9892969232660871</v>
+      </c>
+      <c r="CQ25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9899650197871743</v>
+      </c>
+      <c r="CR25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.990591413069783</v>
+      </c>
+      <c r="CS25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9911787062708601</v>
+      </c>
+      <c r="CT25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9917293400557465</v>
+      </c>
+      <c r="CU25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9922456027410682</v>
+      </c>
+      <c r="CV25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9927296398044865</v>
+      </c>
+      <c r="CW25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9931834628008485</v>
+      </c>
+      <c r="CX25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9936089577217793</v>
+      </c>
+      <c r="CY25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9940078928334639</v>
+      </c>
+      <c r="CZ25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9943819260251772</v>
+      </c>
+      <c r="DA25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9947326116991295</v>
+      </c>
+      <c r="DB25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.99506140723022</v>
+      </c>
+      <c r="DC25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9953696790225823</v>
+      </c>
+      <c r="DD25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9956587081880688</v>
+      </c>
+      <c r="DE25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9959296958702719</v>
+      </c>
+      <c r="DF25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9961837682362331</v>
+      </c>
+      <c r="DG25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.996421981156538</v>
+      </c>
+      <c r="DH25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9966453245933025</v>
+      </c>
+      <c r="DI25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9968547267142363</v>
+      </c>
+      <c r="DJ25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9970510577499114</v>
+      </c>
+      <c r="DK25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9972351336102605</v>
+      </c>
+      <c r="DL25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9974077192753157</v>
+      </c>
+      <c r="DM25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9975695319743085</v>
+      </c>
+      <c r="DN25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9977212441663212</v>
+      </c>
+      <c r="DO25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9978634863348805</v>
+      </c>
+      <c r="DP25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.997996849608116</v>
+      </c>
+      <c r="DQ25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9981218882153602</v>
+      </c>
+      <c r="DR25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.998239121790407</v>
+      </c>
+      <c r="DS25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9983490375310069</v>
+      </c>
+      <c r="DT25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9984520922235394</v>
+      </c>
+      <c r="DU25" s="33">
+        <f t="shared" si="22"/>
+        <v>4.9985487141413429</v>
+      </c>
+      <c r="DV25" s="33">
+        <f t="shared" ref="DV25:DY25" si="23">$B13*DU$25+$C13*DU$26+$D13*DU$27+$E13*DU$28+$F13</f>
+        <v>4.9986393048245059</v>
+      </c>
+      <c r="DW25" s="33">
+        <f t="shared" si="23"/>
+        <v>4.9987242407485963</v>
+      </c>
+      <c r="DX25" s="33">
+        <f t="shared" si="23"/>
+        <v>4.9988038748892087</v>
+      </c>
+      <c r="DY25" s="33">
+        <f t="shared" si="23"/>
+        <v>4.998878538188853</v>
+      </c>
+      <c r="DZ25" s="33">
+        <f t="shared" ref="DZ25:EL25" si="24">$B13*DY$25+$C13*DY$26+$D13*DY$27+$E13*DY$28+$F13</f>
+        <v>4.9989485409322878</v>
+      </c>
+      <c r="EA25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9990141740359899</v>
+      </c>
+      <c r="EB25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9990757102571459</v>
+      </c>
+      <c r="EC25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9991334053271732</v>
+      </c>
+      <c r="ED25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9991874990144849</v>
+      </c>
+      <c r="EE25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9992382161209115</v>
+      </c>
+      <c r="EF25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9992857674159357</v>
+      </c>
+      <c r="EG25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9993303505126025</v>
+      </c>
+      <c r="EH25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9993721506887567</v>
+      </c>
+      <c r="EI25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9994113416570212</v>
+      </c>
+      <c r="EJ25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9994480862867041</v>
+      </c>
+      <c r="EK25" s="33">
+        <f t="shared" si="24"/>
+        <v>4.9994825372806524</v>
+      </c>
+      <c r="EL25" s="35">
+        <f t="shared" si="24"/>
+        <v>4.9995148378098548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="33">
+        <f>$B14*B$25+$C14*B$26+$D14*B$27+$E14*B$28+$F14</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D26" s="33">
+        <f t="shared" ref="D26:S27" si="25">$B14*C$25+$C14*C$26+$D14*C$27+$E14*C$28+$F14</f>
+        <v>1.4444444444444446</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" si="25"/>
+        <v>1.1222222222222222</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="25"/>
+        <v>1.0851851851851853</v>
+      </c>
+      <c r="G26" s="33">
+        <f t="shared" si="25"/>
+        <v>0.92401234567901247</v>
+      </c>
+      <c r="H26" s="33">
+        <f t="shared" si="25"/>
+        <v>0.80962962962962992</v>
+      </c>
+      <c r="I26" s="33">
+        <f t="shared" si="25"/>
+        <v>0.6969927983539097</v>
+      </c>
+      <c r="J26" s="33">
+        <f t="shared" si="25"/>
+        <v>0.59035219478738021</v>
+      </c>
+      <c r="K26" s="33">
+        <f t="shared" si="25"/>
+        <v>0.49137210219478766</v>
+      </c>
+      <c r="L26" s="33">
+        <f t="shared" si="25"/>
+        <v>0.39822536579789714</v>
+      </c>
+      <c r="M26" s="33">
+        <f t="shared" si="25"/>
+        <v>0.3109351869951229</v>
+      </c>
+      <c r="N26" s="33">
+        <f t="shared" si="25"/>
+        <v>0.22912009764136587</v>
+      </c>
+      <c r="O26" s="33">
+        <f t="shared" si="25"/>
+        <v>0.15238973623653718</v>
+      </c>
+      <c r="P26" s="33">
+        <f t="shared" si="25"/>
+        <v>8.0459146564717532E-2</v>
+      </c>
+      <c r="Q26" s="33">
+        <f t="shared" si="25"/>
+        <v>1.3015055402902265E-2</v>
+      </c>
+      <c r="R26" s="33">
+        <f t="shared" si="25"/>
+        <v>-5.0218145032471018E-2</v>
+      </c>
+      <c r="S26" s="33">
+        <f t="shared" si="25"/>
+        <v>-0.10950450964821479</v>
+      </c>
+      <c r="T26" s="33">
+        <f t="shared" ref="T26:BI26" si="26">$B14*S$25+$C14*S$26+$D14*S$27+$E14*S$28+$F14</f>
+        <v>-0.16509008656533619</v>
+      </c>
+      <c r="U26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.21720599349153447</v>
+      </c>
+      <c r="V26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.26606875379830064</v>
+      </c>
+      <c r="W26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.31188146389676907</v>
+      </c>
+      <c r="X26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.35483449451475857</v>
+      </c>
+      <c r="Y26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.39510635723462539</v>
+      </c>
+      <c r="Z26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.4328644099471981</v>
+      </c>
+      <c r="AA26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.46826556844219813</v>
+      </c>
+      <c r="AB26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.50145695183843331</v>
+      </c>
+      <c r="AC26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.53257649667318296</v>
+      </c>
+      <c r="AD26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.56175352904647657</v>
+      </c>
+      <c r="AE26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.58910930252549476</v>
+      </c>
+      <c r="AF26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.61475750185526779</v>
+      </c>
+      <c r="AG26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.63880471549218787</v>
+      </c>
+      <c r="AH26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.66135087852634222</v>
+      </c>
+      <c r="AI26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.68248968800626764</v>
+      </c>
+      <c r="AJ26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.70230899231712685</v>
+      </c>
+      <c r="AK26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.72089115626275579</v>
+      </c>
+      <c r="AL26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.73831340335500495</v>
+      </c>
+      <c r="AM26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.75464813673871078</v>
+      </c>
+      <c r="AN26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.76996324008351125</v>
+      </c>
+      <c r="AO26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.78432235969399788</v>
+      </c>
+      <c r="AP26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.79778516901015029</v>
+      </c>
+      <c r="AQ26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.8104076165974472</v>
+      </c>
+      <c r="AR26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.82224215865717132</v>
+      </c>
+      <c r="AS26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.83333797702320145</v>
+      </c>
+      <c r="AT26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.84374118355122874</v>
+      </c>
+      <c r="AU26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.85349501174979747</v>
+      </c>
+      <c r="AV26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.86263999644955258</v>
+      </c>
+      <c r="AW26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.87121414225735205</v>
+      </c>
+      <c r="AX26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.87925308149531101</v>
+      </c>
+      <c r="AY26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.88679022228113991</v>
+      </c>
+      <c r="AZ26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.89385688736515401</v>
+      </c>
+      <c r="BA26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.90048244430095159</v>
+      </c>
+      <c r="BB26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.90669442749070162</v>
+      </c>
+      <c r="BC26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.91251865261225285</v>
+      </c>
+      <c r="BD26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.91797932390358583</v>
+      </c>
+      <c r="BE26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.9230991347504649</v>
+      </c>
+      <c r="BF26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.92789936199531398</v>
+      </c>
+      <c r="BG26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.9323999543592365</v>
+      </c>
+      <c r="BH26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.93661961534464777</v>
+      </c>
+      <c r="BI26" s="33">
+        <f t="shared" si="26"/>
+        <v>-0.94057588096304356</v>
+      </c>
+      <c r="BJ26" s="33">
+        <f t="shared" ref="BJ26:DU26" si="27">$B14*BI$25+$C14*BI$26+$D14*BI$27+$E14*BI$28+$F14</f>
+        <v>-0.94428519261092636</v>
+      </c>
+      <c r="BK26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.94776296539674232</v>
+      </c>
+      <c r="BL26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.95102365220278906</v>
+      </c>
+      <c r="BM26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.95408080374830795</v>
+      </c>
+      <c r="BN26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.95694712490339096</v>
+      </c>
+      <c r="BO26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.95963452748770828</v>
+      </c>
+      <c r="BP26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.96215417977349182</v>
+      </c>
+      <c r="BQ26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.96451655289849447</v>
+      </c>
+      <c r="BR26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.96673146438180635</v>
+      </c>
+      <c r="BS26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.96880811892337104</v>
+      </c>
+      <c r="BT26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.97075514665675589</v>
+      </c>
+      <c r="BU26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.97258063901414737</v>
+      </c>
+      <c r="BV26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.97429218235262049</v>
+      </c>
+      <c r="BW26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.97589688948141728</v>
+      </c>
+      <c r="BX26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.97740142922126894</v>
+      </c>
+      <c r="BY26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.97881205411859251</v>
+      </c>
+      <c r="BZ26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.98013462642973992</v>
+      </c>
+      <c r="CA26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.98137464248328699</v>
+      </c>
+      <c r="CB26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.9825372555216012</v>
+      </c>
+      <c r="CC26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.98362729711662156</v>
+      </c>
+      <c r="CD26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.98464929724883832</v>
+      </c>
+      <c r="CE26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.98560750313292833</v>
+      </c>
+      <c r="CF26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.98650589686827206</v>
+      </c>
+      <c r="CG26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.98734821198771239</v>
+      </c>
+      <c r="CH26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.98813794897331797</v>
+      </c>
+      <c r="CI26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.98887838980364262</v>
+      </c>
+      <c r="CJ26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.98957261159292842</v>
+      </c>
+      <c r="CK26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99022349937893472</v>
+      </c>
+      <c r="CL26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.9908337581125426</v>
+      </c>
+      <c r="CM26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99140592389895166</v>
+      </c>
+      <c r="CN26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99194237453719469</v>
+      </c>
+      <c r="CO26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99244533940176205</v>
+      </c>
+      <c r="CP26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99291690870740745</v>
+      </c>
+      <c r="CQ26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99335904219563465</v>
+      </c>
+      <c r="CR26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99377357727896487</v>
+      </c>
+      <c r="CS26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99416223667683323</v>
+      </c>
+      <c r="CT26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99452663557484189</v>
+      </c>
+      <c r="CU26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99486828833712715</v>
+      </c>
+      <c r="CV26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99518861479973464</v>
+      </c>
+      <c r="CW26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99548894617115447</v>
+      </c>
+      <c r="CX26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99577053056454123</v>
+      </c>
+      <c r="CY26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99603453818460452</v>
+      </c>
+      <c r="CZ26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99628206619073167</v>
+      </c>
+      <c r="DA26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99651414325654764</v>
+      </c>
+      <c r="DB26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99673173384486202</v>
+      </c>
+      <c r="DC26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99693574221577452</v>
+      </c>
+      <c r="DD26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99712701618458266</v>
+      </c>
+      <c r="DE26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99730635064512563</v>
+      </c>
+      <c r="DF26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99747449087318896</v>
+      </c>
+      <c r="DG26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99763213562371678</v>
+      </c>
+      <c r="DH26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99777994003468495</v>
+      </c>
+      <c r="DI26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99791851834971568</v>
+      </c>
+      <c r="DJ26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99804844647074442</v>
+      </c>
+      <c r="DK26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99817026435134326</v>
+      </c>
+      <c r="DL26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99828447824065436</v>
+      </c>
+      <c r="DM26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99839156278725416</v>
+      </c>
+      <c r="DN26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99849196301168841</v>
+      </c>
+      <c r="DO26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.998586096155887</v>
+      </c>
+      <c r="DP26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99867435341712985</v>
+      </c>
+      <c r="DQ26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99875710157377884</v>
+      </c>
+      <c r="DR26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99883468450953372</v>
+      </c>
+      <c r="DS26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99890742464253468</v>
+      </c>
+      <c r="DT26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.9989756242652692</v>
+      </c>
+      <c r="DU26" s="33">
+        <f t="shared" si="27"/>
+        <v>-0.99903956680082939</v>
+      </c>
+      <c r="DV26" s="33">
+        <f t="shared" ref="DV26:DY26" si="28">$B14*DU$25+$C14*DU$26+$D14*DU$27+$E14*DU$28+$F14</f>
+        <v>-0.99909951798076135</v>
+      </c>
+      <c r="DW26" s="33">
+        <f t="shared" si="28"/>
+        <v>-0.99915572694938892</v>
+      </c>
+      <c r="DX26" s="33">
+        <f t="shared" si="28"/>
+        <v>-0.99920842729920278</v>
+      </c>
+      <c r="DY26" s="33">
+        <f t="shared" si="28"/>
+        <v>-0.99925783804162216</v>
+      </c>
+      <c r="DZ26" s="33">
+        <f t="shared" ref="DZ26:EL26" si="29">$B14*DY$25+$C14*DY$26+$D14*DY$27+$E14*DY$28+$F14</f>
+        <v>-0.99930416451715831</v>
+      </c>
+      <c r="EA26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99934759924876793</v>
+      </c>
+      <c r="EB26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99938832274193623</v>
+      </c>
+      <c r="EC26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99942650423481916</v>
+      </c>
+      <c r="ED26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99946230240156164</v>
+      </c>
+      <c r="EE26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99949586601171236</v>
+      </c>
+      <c r="EF26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99952733454848119</v>
+      </c>
+      <c r="EG26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99955683878839729</v>
+      </c>
+      <c r="EH26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99958450134479215</v>
+      </c>
+      <c r="EI26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99961043717735376</v>
+      </c>
+      <c r="EJ26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99963475406987201</v>
+      </c>
+      <c r="EK26" s="33">
+        <f t="shared" si="29"/>
+        <v>-0.99965755307816884</v>
+      </c>
+      <c r="EL26" s="36">
+        <f t="shared" si="29"/>
+        <v>-0.99967892895006227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="33">
+        <f t="shared" ref="C26:R28" si="30">$B15*B$25+$C15*B$26+$D15*B$27+$E15*B$28+$F15</f>
+        <v>-0.4</v>
+      </c>
+      <c r="D27" s="33">
+        <f t="shared" si="30"/>
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="30"/>
+        <v>0.31333333333333335</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="30"/>
+        <v>0.46638888888888885</v>
+      </c>
+      <c r="G27" s="33">
+        <f t="shared" si="30"/>
+        <v>0.65316666666666656</v>
+      </c>
+      <c r="H27" s="33">
+        <f t="shared" si="30"/>
+        <v>0.78277314814814802</v>
+      </c>
+      <c r="I27" s="33">
+        <f t="shared" si="30"/>
+        <v>0.92828024691358013</v>
+      </c>
+      <c r="J27" s="33">
+        <f t="shared" si="30"/>
+        <v>1.0551360339506171</v>
+      </c>
+      <c r="K27" s="33">
+        <f t="shared" si="30"/>
+        <v>1.1773078652263371</v>
+      </c>
+      <c r="L27" s="33">
+        <f t="shared" si="30"/>
+        <v>1.2908323563957476</v>
+      </c>
+      <c r="M27" s="33">
+        <f t="shared" si="30"/>
+        <v>1.3976173012688613</v>
+      </c>
+      <c r="N27" s="33">
+        <f t="shared" si="30"/>
+        <v>1.4975942290023432</v>
+      </c>
+      <c r="O27" s="33">
+        <f t="shared" si="30"/>
+        <v>1.5913983138779337</v>
+      </c>
+      <c r="P27" s="33">
+        <f t="shared" si="30"/>
+        <v>1.6793138926779689</v>
+      </c>
+      <c r="Q27" s="33">
+        <f t="shared" si="30"/>
+        <v>1.7617572235954246</v>
+      </c>
+      <c r="R27" s="33">
+        <f t="shared" si="30"/>
+        <v>1.8390474997744479</v>
+      </c>
+      <c r="S27" s="33">
+        <f t="shared" si="25"/>
+        <v>1.9115161366824167</v>
+      </c>
+      <c r="T27" s="33">
+        <f t="shared" ref="T27:BI27" si="31">$B15*S$25+$C15*S$26+$D15*S$27+$E15*S$28+$F15</f>
+        <v>1.9794600173782171</v>
+      </c>
+      <c r="U27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.0431632656095653</v>
+      </c>
+      <c r="V27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.102889889681737</v>
+      </c>
+      <c r="W27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.1588884066976806</v>
+      </c>
+      <c r="X27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.2113914038953739</v>
+      </c>
+      <c r="Y27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.2606171289054919</v>
+      </c>
+      <c r="Z27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.3067701289882603</v>
+      </c>
+      <c r="AA27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.3500422166572648</v>
+      </c>
+      <c r="AB27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.3906132169975494</v>
+      </c>
+      <c r="AC27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.4286517363486744</v>
+      </c>
+      <c r="AD27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.4643158538753047</v>
+      </c>
+      <c r="AE27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.4977537823925648</v>
+      </c>
+      <c r="AF27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.529104482655685</v>
+      </c>
+      <c r="AG27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.5584982415544038</v>
+      </c>
+      <c r="AH27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.5860572132575879</v>
+      </c>
+      <c r="AI27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.6118959269880206</v>
+      </c>
+      <c r="AJ27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.6361217629266869</v>
+      </c>
+      <c r="AK27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.6588353984853104</v>
+      </c>
+      <c r="AL27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.6801312266902206</v>
+      </c>
+      <c r="AM27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.7000977484639122</v>
+      </c>
+      <c r="AN27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.7188179404141941</v>
+      </c>
+      <c r="AO27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.7363695996680564</v>
+      </c>
+      <c r="AP27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.7528256671796156</v>
+      </c>
+      <c r="AQ27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.7682545308573112</v>
+      </c>
+      <c r="AR27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.7827203097694118</v>
+      </c>
+      <c r="AS27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.7962831206092229</v>
+      </c>
+      <c r="AT27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.8089993275272351</v>
+      </c>
+      <c r="AU27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.8209217763685217</v>
+      </c>
+      <c r="AV27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.8321000142888058</v>
+      </c>
+      <c r="AW27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.842580495661875</v>
+      </c>
+      <c r="AX27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.8524067751340563</v>
+      </c>
+      <c r="AY27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.8616196886280427</v>
+      </c>
+      <c r="AZ27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.8702575230482785</v>
+      </c>
+      <c r="BA27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.878356175393177</v>
+      </c>
+      <c r="BB27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.8859493019353892</v>
+      </c>
+      <c r="BC27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.8930684580901</v>
+      </c>
+      <c r="BD27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.8997432295526058</v>
+      </c>
+      <c r="BE27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.9060013552501585</v>
+      </c>
+      <c r="BF27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.9118688426190324</v>
+      </c>
+      <c r="BG27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.9173700756858829</v>
+      </c>
+      <c r="BH27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.9225279164025695</v>
+      </c>
+      <c r="BI27" s="33">
+        <f t="shared" si="31"/>
+        <v>2.9273637996555455</v>
+      </c>
+      <c r="BJ27" s="33">
+        <f t="shared" ref="BJ27:DU27" si="32">$B15*BI$25+$C15*BI$26+$D15*BI$27+$E15*BI$28+$F15</f>
+        <v>2.9318978223446845</v>
+      </c>
+      <c r="BK27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9361488269017051</v>
+      </c>
+      <c r="BL27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9401344795953057</v>
+      </c>
+      <c r="BM27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9438713439484077</v>
+      </c>
+      <c r="BN27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9473749495726271</v>
+      </c>
+      <c r="BO27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.95065985670603</v>
+      </c>
+      <c r="BP27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9537397167223762</v>
+      </c>
+      <c r="BQ27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9566273288633207</v>
+      </c>
+      <c r="BR27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9593346934293319</v>
+      </c>
+      <c r="BS27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9618730616503814</v>
+      </c>
+      <c r="BT27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9642529824436612</v>
+      </c>
+      <c r="BU27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9664843462526274</v>
+      </c>
+      <c r="BV27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9685764261495837</v>
+      </c>
+      <c r="BW27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9705379163725847</v>
+      </c>
+      <c r="BX27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.972376968456842</v>
+      </c>
+      <c r="BY27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.974101225110763</v>
+      </c>
+      <c r="BZ27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9757178519774192</v>
+      </c>
+      <c r="CA27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9772335674134323</v>
+      </c>
+      <c r="CB27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.978654670409028</v>
+      </c>
+      <c r="CC27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9799870667653034</v>
+      </c>
+      <c r="CD27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9812362936374686</v>
+      </c>
+      <c r="CE27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9824075425460932</v>
+      </c>
+      <c r="CF27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9835056809519491</v>
+      </c>
+      <c r="CG27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9845352724841478</v>
+      </c>
+      <c r="CH27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9855005959056053</v>
+      </c>
+      <c r="CI27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.986405662894672</v>
+      </c>
+      <c r="CJ27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9872542347168083</v>
+      </c>
+      <c r="CK27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9880498378556068</v>
+      </c>
+      <c r="CL27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9887957786681025</v>
+      </c>
+      <c r="CM27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9894951571252912</v>
+      </c>
+      <c r="CN27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9901508796949452</v>
+      </c>
+      <c r="CO27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9907656714202751</v>
+      </c>
+      <c r="CP27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9913420872446279</v>
+      </c>
+      <c r="CQ27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9918825226292887</v>
+      </c>
+      <c r="CR27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9923892235085034</v>
+      </c>
+      <c r="CS27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9928642956231069</v>
+      </c>
+      <c r="CT27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9933097132715298</v>
+      </c>
+      <c r="CU27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9937273275145642</v>
+      </c>
+      <c r="CV27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9941188738679747</v>
+      </c>
+      <c r="CW27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9944859795149368</v>
+      </c>
+      <c r="CX27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9948301700682571</v>
+      </c>
+      <c r="CY27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9951528759105006</v>
+      </c>
+      <c r="CZ27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9954554381383516</v>
+      </c>
+      <c r="DA27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9957391141359286</v>
+      </c>
+      <c r="DB27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9960050828002021</v>
+      </c>
+      <c r="DC27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9962544494402414</v>
+      </c>
+      <c r="DD27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9964882503706414</v>
+      </c>
+      <c r="DE27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9967074572182271</v>
+      </c>
+      <c r="DF27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9969129809599249</v>
+      </c>
+      <c r="DG27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9971056757085921</v>
+      </c>
+      <c r="DH27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9972863422625244</v>
+      </c>
+      <c r="DI27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9974557314334049</v>
+      </c>
+      <c r="DJ27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9976145471665174</v>
+      </c>
+      <c r="DK27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9977634494661918</v>
+      </c>
+      <c r="DL27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9979030571386414</v>
+      </c>
+      <c r="DM27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9980339503635918</v>
+      </c>
+      <c r="DN27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9981566731053815</v>
+      </c>
+      <c r="DO27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9982717353735628</v>
+      </c>
+      <c r="DP27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9983796153423934</v>
+      </c>
+      <c r="DQ27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.998480761338024</v>
+      </c>
+      <c r="DR27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9985755937016529</v>
+      </c>
+      <c r="DS27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9986645065363629</v>
+      </c>
+      <c r="DT27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9987478693449439</v>
+      </c>
+      <c r="DU27" s="33">
+        <f t="shared" si="32"/>
+        <v>2.9988260285654547</v>
+      </c>
+      <c r="DV27" s="33">
+        <f t="shared" ref="DV27:DY27" si="33">$B15*DU$25+$C15*DU$26+$D15*DU$27+$E15*DU$28+$F15</f>
+        <v>2.9988993090109539</v>
+      </c>
+      <c r="DW27" s="33">
+        <f t="shared" si="33"/>
+        <v>2.9989680152193516</v>
+      </c>
+      <c r="DX27" s="33">
+        <f t="shared" si="33"/>
+        <v>2.9990324327190021</v>
+      </c>
+      <c r="DY27" s="33">
+        <f t="shared" si="33"/>
+        <v>2.9990928292153018</v>
+      </c>
+      <c r="DZ27" s="33">
+        <f t="shared" ref="DZ27:EL27" si="34">$B15*DY$25+$C15*DY$26+$D15*DY$27+$E15*DY$28+$F15</f>
+        <v>2.9991494557032135</v>
+      </c>
+      <c r="EA27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.999202547510349</v>
+      </c>
+      <c r="EB27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.999252325274941</v>
+      </c>
+      <c r="EC27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.9992989958627669</v>
+      </c>
+      <c r="ED27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.9993427532268404</v>
+      </c>
+      <c r="EE27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.9993837792134386</v>
+      </c>
+      <c r="EF27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.9994222443178153</v>
+      </c>
+      <c r="EG27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.9994583083927449</v>
+      </c>
+      <c r="EH27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.999492121312834</v>
+      </c>
+      <c r="EI27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.9995238235973698</v>
+      </c>
+      <c r="EJ27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.9995535469942891</v>
+      </c>
+      <c r="EK27" s="33">
+        <f t="shared" si="34"/>
+        <v>2.9995814150276932</v>
+      </c>
+      <c r="EL27" s="36">
+        <f t="shared" si="34"/>
+        <v>2.9996075435111869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="21">
+        <v>0</v>
+      </c>
+      <c r="C28" s="33">
+        <f>$B16*B$25+$C16*B$26+$D16*B$27+$E16*B$28+$F16</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="D28" s="33">
+        <f t="shared" ref="D28:S28" si="35">$B16*C$25+$C16*C$26+$D16*C$27+$E16*C$28+$F16</f>
+        <v>-0.81666666666666665</v>
+      </c>
+      <c r="E28" s="33">
+        <f t="shared" si="35"/>
+        <v>-0.87222222222222223</v>
+      </c>
+      <c r="F28" s="33">
+        <f t="shared" si="35"/>
+        <v>-1.1139814814814815</v>
+      </c>
+      <c r="G28" s="33">
+        <f t="shared" si="35"/>
+        <v>-1.2855555555555553</v>
+      </c>
+      <c r="H28" s="33">
+        <f t="shared" si="35"/>
+        <v>-1.4545108024691356</v>
+      </c>
+      <c r="I28" s="33">
+        <f>$B16*H$25+$C16*H$26+$D16*H$27+$E16*H$28+$F16</f>
+        <v>-1.6144717078189299</v>
+      </c>
+      <c r="J28" s="33">
+        <f t="shared" si="35"/>
+        <v>-1.7629418467078186</v>
+      </c>
+      <c r="K28" s="33">
+        <f t="shared" si="35"/>
+        <v>-1.9026619513031546</v>
+      </c>
+      <c r="L28" s="33">
+        <f t="shared" si="35"/>
+        <v>-2.0335972195073158</v>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" si="35"/>
+        <v>-2.1563198535379513</v>
+      </c>
+      <c r="N28" s="33">
+        <f t="shared" si="35"/>
+        <v>-2.2714153956451946</v>
+      </c>
+      <c r="O28" s="33">
+        <f t="shared" si="35"/>
+        <v>-2.3793112801529239</v>
+      </c>
+      <c r="P28" s="33">
+        <f t="shared" si="35"/>
+        <v>-2.4804774168956469</v>
+      </c>
+      <c r="Q28" s="33">
+        <f t="shared" si="35"/>
+        <v>-2.5753272175487067</v>
+      </c>
+      <c r="R28" s="33">
+        <f t="shared" si="35"/>
+        <v>-2.6642567644723223</v>
+      </c>
+      <c r="S28" s="33">
+        <f t="shared" si="35"/>
+        <v>-2.7476351298480046</v>
+      </c>
+      <c r="T28" s="33">
+        <f t="shared" ref="T28:BI28" si="36">$B16*S$25+$C16*S$26+$D16*S$27+$E16*S$28+$F16</f>
+        <v>-2.8258089902373018</v>
+      </c>
+      <c r="U28" s="33">
+        <f t="shared" si="36"/>
+        <v>-2.8991031306974513</v>
+      </c>
+      <c r="V28" s="33">
+        <f t="shared" si="36"/>
+        <v>-2.9678221958451538</v>
+      </c>
+      <c r="W28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.0322517417721384</v>
+      </c>
+      <c r="X28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.0926595358519382</v>
+      </c>
+      <c r="Y28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.1492966149207975</v>
+      </c>
+      <c r="Z28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.2023983526632978</v>
+      </c>
+      <c r="AA28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.2521854277576505</v>
+      </c>
+      <c r="AB28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.2988647450097748</v>
+      </c>
+      <c r="AC28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.3426302935697154</v>
+      </c>
+      <c r="AD28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.3836639537882425</v>
+      </c>
+      <c r="AE28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.4221362527829022</v>
+      </c>
+      <c r="AF28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.4582070732382824</v>
+      </c>
+      <c r="AG28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.4920263177895139</v>
+      </c>
+      <c r="AH28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.5237345320094016</v>
+      </c>
+      <c r="AI28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.5534634884756908</v>
+      </c>
+      <c r="AJ28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.5813367343941342</v>
+      </c>
+      <c r="AK28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.6074701050325078</v>
+      </c>
+      <c r="AL28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.6319722051080663</v>
+      </c>
+      <c r="AM28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.6549448601252674</v>
+      </c>
+      <c r="AN28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.6764835395409974</v>
+      </c>
+      <c r="AO28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.696677753515226</v>
+      </c>
+      <c r="AP28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.7156114248961711</v>
+      </c>
+      <c r="AQ28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.7333632379857575</v>
+      </c>
+      <c r="AR28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.7500069655348027</v>
+      </c>
+      <c r="AS28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.7656117753268434</v>
+      </c>
+      <c r="AT28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.7802425176246968</v>
+      </c>
+      <c r="AU28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.7939599946743292</v>
+      </c>
+      <c r="AV28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.8068212133860282</v>
+      </c>
+      <c r="AW28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.8188796222429668</v>
+      </c>
+      <c r="AX28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.8301853334217104</v>
+      </c>
+      <c r="AY28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.8407853310477313</v>
+      </c>
+      <c r="AZ28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.8507236664514277</v>
+      </c>
+      <c r="BA28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.860041641236053</v>
+      </c>
+      <c r="BB28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.8687779789183798</v>
+      </c>
+      <c r="BC28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.8769689858553789</v>
+      </c>
+      <c r="BD28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.8846487021256975</v>
+      </c>
+      <c r="BE28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.8918490429929711</v>
+      </c>
+      <c r="BF28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.8985999315388549</v>
+      </c>
+      <c r="BG28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.9049294230169722</v>
+      </c>
+      <c r="BH28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.9108638214445657</v>
+      </c>
+      <c r="BI28" s="33">
+        <f t="shared" si="36"/>
+        <v>-3.9164277889163901</v>
+      </c>
+      <c r="BJ28" s="33">
+        <f t="shared" ref="BJ28:DU28" si="37">$B16*BI$25+$C16*BI$26+$D16*BI$27+$E16*BI$28+$F16</f>
+        <v>-3.921644448095114</v>
+      </c>
+      <c r="BK28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9265354783041837</v>
+      </c>
+      <c r="BL28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9311212056224623</v>
+      </c>
+      <c r="BM28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9354206873550868</v>
+      </c>
+      <c r="BN28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.939451791231563</v>
+      </c>
+      <c r="BO28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9432312696602381</v>
+      </c>
+      <c r="BP28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.946774829347742</v>
+      </c>
+      <c r="BQ28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9500971965727096</v>
+      </c>
+      <c r="BR28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9532121783850567</v>
+      </c>
+      <c r="BS28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9561327199851339</v>
+      </c>
+      <c r="BT28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9588709585212216</v>
+      </c>
+      <c r="BU28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9614382735289313</v>
+      </c>
+      <c r="BV28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.963845334222126</v>
+      </c>
+      <c r="BW28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.966102143831904</v>
+      </c>
+      <c r="BX28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9682180811778891</v>
+      </c>
+      <c r="BY28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.97020193964461</v>
+      </c>
+      <c r="BZ28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9720619637249306</v>
+      </c>
+      <c r="CA28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9738058832824024</v>
+      </c>
+      <c r="CB28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9754409456749329</v>
+      </c>
+      <c r="CC28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9769739458732576</v>
+      </c>
+      <c r="CD28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9784112546993926</v>
+      </c>
+      <c r="CE28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9797588453024084</v>
+      </c>
+      <c r="CF28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9810223179815689</v>
+      </c>
+      <c r="CG28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9822069234599771</v>
+      </c>
+      <c r="CH28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9833175847054645</v>
+      </c>
+      <c r="CI28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9843589173893927</v>
+      </c>
+      <c r="CJ28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9853352490684024</v>
+      </c>
+      <c r="CK28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9862506371688142</v>
+      </c>
+      <c r="CL28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.987108885848428</v>
+      </c>
+      <c r="CM28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9879135618057924</v>
+      </c>
+      <c r="CN28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9886680091026436</v>
+      </c>
+      <c r="CO28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9893753630611113</v>
+      </c>
+      <c r="CP28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9900385632934521</v>
+      </c>
+      <c r="CQ28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9906603659184476</v>
+      </c>
+      <c r="CR28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9912433550152504</v>
+      </c>
+      <c r="CS28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9917899533622632</v>
+      </c>
+      <c r="CT28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9923024325056913</v>
+      </c>
+      <c r="CU28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9927829221996021</v>
+      </c>
+      <c r="CV28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.993233419256732</v>
+      </c>
+      <c r="CW28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.993655795846812</v>
+      </c>
+      <c r="CX28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9940518072769073</v>
+      </c>
+      <c r="CY28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9944230992860978</v>
+      </c>
+      <c r="CZ28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9947712148848216</v>
+      </c>
+      <c r="DA28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9950976007672936</v>
+      </c>
+      <c r="DB28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9954036133236621</v>
+      </c>
+      <c r="DC28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9956905242768745</v>
+      </c>
+      <c r="DD28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9959595259676886</v>
+      </c>
+      <c r="DE28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.996211736309784</v>
+      </c>
+      <c r="DF28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9964482034355755</v>
+      </c>
+      <c r="DG28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9966699100520278</v>
+      </c>
+      <c r="DH28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9968777775245741</v>
+      </c>
+      <c r="DI28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.997072669706117</v>
+      </c>
+      <c r="DJ28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9972553965270152</v>
+      </c>
+      <c r="DK28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9974267173609821</v>
+      </c>
+      <c r="DL28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9975873441808814</v>
+      </c>
+      <c r="DM28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9977379445175329</v>
+      </c>
+      <c r="DN28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9978791442338308</v>
+      </c>
+      <c r="DO28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9980115301256949</v>
+      </c>
+      <c r="DP28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9981356523606686</v>
+      </c>
+      <c r="DQ28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9982520267643009</v>
+      </c>
+      <c r="DR28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9983611369638026</v>
+      </c>
+      <c r="DS28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9984634363979041</v>
+      </c>
+      <c r="DT28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9985593502012442</v>
+      </c>
+      <c r="DU28" s="33">
+        <f t="shared" si="37"/>
+        <v>-3.9986492769711424</v>
+      </c>
+      <c r="DV28" s="33">
+        <f t="shared" ref="DV28:DY28" si="38">$B16*DU$25+$C16*DU$26+$D16*DU$27+$E16*DU$28+$F16</f>
+        <v>-3.9987335904240839</v>
+      </c>
+      <c r="DW28" s="33">
+        <f t="shared" si="38"/>
+        <v>-3.9988126409488047</v>
+      </c>
+      <c r="DX28" s="33">
+        <f t="shared" si="38"/>
+        <v>-3.9988867570624334</v>
+      </c>
+      <c r="DY28" s="33">
+        <f t="shared" si="38"/>
+        <v>-3.9989562467757378</v>
+      </c>
+      <c r="DZ28" s="33">
+        <f t="shared" ref="DZ28:EL28" si="39">$B16*DY$25+$C16*DY$26+$D16*DY$27+$E16*DY$28+$F16</f>
+        <v>-3.9990213988731522</v>
+      </c>
+      <c r="EA28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.9990824841129049</v>
+      </c>
+      <c r="EB28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.9991397563522293</v>
+      </c>
+      <c r="EC28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.9991934536023428</v>
+      </c>
+      <c r="ED28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.9992437990175689</v>
+      </c>
+      <c r="EE28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.9992910018227219</v>
+      </c>
+      <c r="EF28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.9993352581825961</v>
+      </c>
+      <c r="EG28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.9993767520171888</v>
+      </c>
+      <c r="EH28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.9994156557660308</v>
+      </c>
+      <c r="EI28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.9994521311048081</v>
+      </c>
+      <c r="EJ28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.9994863296172536</v>
+      </c>
+      <c r="EK28" s="33">
+        <f t="shared" si="39"/>
+        <v>-3.999518393425094</v>
+      </c>
+      <c r="EL28" s="37">
+        <f t="shared" si="39"/>
+        <v>-3.9995484557786796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:222" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>